--- a/index.xlsx
+++ b/index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="7770" activeTab="1"/>
+    <workbookView windowWidth="20520" windowHeight="7770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="170">
   <si>
     <t>Graph（图论）</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>除法求值</t>
+  </si>
+  <si>
+    <t>判断二分图</t>
+  </si>
+  <si>
+    <t>找到小镇的法官</t>
   </si>
   <si>
     <t>Validate Binary Search Tree</t>
@@ -530,12 +536,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,14 +599,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,13 +608,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,31 +635,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,9 +680,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,21 +719,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -720,17 +727,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -767,13 +766,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,97 +880,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,49 +928,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,16 +1131,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1152,6 +1151,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,17 +1196,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,177 +1228,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,6 +1389,10 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFill="true"/>
@@ -1861,1853 +1864,1853 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.375" style="10" customWidth="true"/>
-    <col min="2" max="2" width="26.625" style="10" customWidth="true"/>
-    <col min="3" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="30.375" style="12" customWidth="true"/>
+    <col min="2" max="2" width="26.625" style="12" customWidth="true"/>
+    <col min="3" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="12"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" ht="15" spans="1:9">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" ht="15" spans="1:9">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="15" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:9">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>133</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="21">
         <v>138</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>200</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="21">
         <v>547</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="21">
         <v>695</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="31">
         <v>733</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="23">
         <v>827</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="21">
         <v>1162</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:9">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>841</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="21">
         <v>1202</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="42" customHeight="true" spans="1:9">
-      <c r="A9" s="14">
+      <c r="A9" s="16">
         <v>207</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="21">
         <v>210</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="21">
         <v>802</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:9">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>399</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="21">
         <v>839</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="23">
         <v>952</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="21">
         <v>990</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="21">
         <v>721</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="21">
         <v>737</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:9">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>785</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="21">
         <v>886</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="21">
         <v>1042</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:9">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>997</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:9">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>433</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="23">
         <v>815</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="21">
         <v>863</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="21">
         <v>1129</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="23">
         <v>1263</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:9">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <v>684</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="23">
         <v>685</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="21">
         <v>1319</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="14">
+      <c r="A15" s="16">
         <v>743</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="21">
         <v>787</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="23">
         <v>882</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="23">
         <v>924</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="21">
         <v>1334</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:9">
-      <c r="A16" s="14">
+      <c r="A16" s="16">
         <v>847</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="23">
         <v>864</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="23">
         <v>1298</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:9">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <v>332</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:9">
-      <c r="A18" s="14">
+      <c r="A18" s="16">
         <v>1192</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:9">
-      <c r="A19" s="14">
+      <c r="A19" s="16">
         <v>943</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="23">
         <v>980</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="23">
         <v>996</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:9">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>959</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:1">
-      <c r="A24" s="12"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="14" t="s">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" ht="15" spans="1:11">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" ht="15" spans="1:11">
+      <c r="A26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="15" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:11">
-      <c r="A27" s="14">
+      <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="21">
         <v>39</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="21">
         <v>40</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="21">
         <v>77</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="21">
         <v>78</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="21">
         <v>90</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="21">
         <v>216</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="30" t="s">
+      <c r="J27" s="17"/>
+      <c r="K27" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:11">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>46</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="21">
         <v>47</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="21">
         <v>784</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="23">
         <v>943</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="23">
         <v>996</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:11">
-      <c r="A29" s="14">
+      <c r="A29" s="16">
         <v>22</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="23">
         <v>301</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:11">
-      <c r="A30" s="14">
+      <c r="A30" s="16">
         <v>37</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="21">
         <v>51</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="23">
         <v>52</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:11">
-      <c r="A31" s="14">
+      <c r="A31" s="16">
         <v>79</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="23">
         <v>212</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:11">
-      <c r="A32" s="14">
+      <c r="A32" s="16">
         <v>127</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="23">
         <v>126</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="21">
         <v>752</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="23">
         <v>818</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:11">
-      <c r="A33" s="14">
+      <c r="A33" s="16">
         <v>542</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="23">
         <v>675</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="21">
         <v>934</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:11">
-      <c r="A34" s="14">
+      <c r="A34" s="16">
         <v>698</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="21">
         <v>93</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="21">
         <v>131</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="21">
         <v>241</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="23">
         <v>282</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="21">
         <v>842</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15" t="s">
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" ht="18" spans="1:1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:1">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="14" t="s">
+      <c r="A38" s="14"/>
+    </row>
+    <row r="39" ht="15" spans="1:11">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" ht="15" spans="1:11">
+      <c r="A40" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="15" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:11">
-      <c r="A41" s="14">
+      <c r="A41" s="16">
         <v>35</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="21">
         <v>34</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="31">
         <v>704</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="21">
         <v>981</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15" t="s">
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:11">
-      <c r="A42" s="14">
+      <c r="A42" s="16">
         <v>33</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="21">
         <v>81</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="21">
         <v>153</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="21">
         <v>154</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="21">
         <v>162</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="31">
         <v>852</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15" t="s">
+      <c r="I42" s="16"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:11">
-      <c r="A43" s="14">
+      <c r="A43" s="16">
         <v>69</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:11">
-      <c r="A44" s="14">
+      <c r="A44" s="16">
         <v>74</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:11">
-      <c r="A45" s="14">
+      <c r="A45" s="16">
         <v>875</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="21">
         <v>1011</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="30" t="s">
+      <c r="E45" s="28"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:11">
-      <c r="A46" s="14">
+      <c r="A46" s="16">
         <v>4</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" ht="15" spans="1:11">
-      <c r="A47" s="14">
+      <c r="A47" s="16">
         <v>378</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="23">
         <v>668</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15" t="s">
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:11">
-      <c r="A48" s="14">
+      <c r="A48" s="16">
         <v>719</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="23">
         <v>786</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15" t="s">
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="51" ht="18" spans="1:1">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:1">
-      <c r="A52" s="12"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="14" t="s">
+      <c r="A52" s="14"/>
+    </row>
+    <row r="53" ht="15" spans="1:11">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" ht="15" spans="1:11">
+      <c r="A54" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="30" t="s">
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:11">
-      <c r="A55" s="14">
+      <c r="A55" s="16">
         <v>11</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="23">
         <v>42</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="17"/>
     </row>
     <row r="56" ht="15" spans="1:11">
-      <c r="A56" s="14">
+      <c r="A56" s="16">
         <v>125</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="26">
         <v>455</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
     </row>
     <row r="57" ht="15" spans="1:11">
-      <c r="A57" s="14">
+      <c r="A57" s="16">
         <v>917</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="27">
         <v>925</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="27">
         <v>986</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="27">
         <v>855</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
     </row>
     <row r="58" ht="15" spans="1:11">
-      <c r="A58" s="14">
+      <c r="A58" s="16">
         <v>167</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="27">
         <v>15</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="27">
         <v>16</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
     </row>
     <row r="59" ht="15" spans="1:11">
-      <c r="A59" s="14">
+      <c r="A59" s="16">
         <v>977</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="30" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:11">
-      <c r="A60" s="14">
+      <c r="A60" s="16">
         <v>992</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="17"/>
     </row>
     <row r="63" ht="18" spans="1:1">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:1">
-      <c r="A64" s="12"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="14" t="s">
+      <c r="A64" s="14"/>
+    </row>
+    <row r="65" ht="15" spans="1:10">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" ht="15" spans="1:10">
+      <c r="A66" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="15" t="s">
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:10">
-      <c r="A67" s="14">
+      <c r="A67" s="16">
         <v>208</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="21">
         <v>648</v>
       </c>
-      <c r="E67" s="51">
+      <c r="E67" s="53">
         <v>676</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="21">
         <v>677</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="31">
         <v>720</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="23">
         <v>745</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="22">
         <v>211</v>
       </c>
-      <c r="J67" s="15" t="s">
+      <c r="J67" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:10">
-      <c r="A68" s="14">
+      <c r="A68" s="16">
         <v>307</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15" t="s">
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:10">
-      <c r="A69" s="14">
+      <c r="A69" s="16">
         <v>901</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="21">
         <v>907</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="21">
         <v>1019</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15" t="s">
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:10">
-      <c r="A70" s="14">
+      <c r="A70" s="16">
         <v>239</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15" t="s">
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="73" ht="18" spans="1:1">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:1">
-      <c r="A74" s="12"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="14" t="s">
+      <c r="A74" s="14"/>
+    </row>
+    <row r="75" ht="15" spans="1:9">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" ht="15" spans="1:9">
+      <c r="A76" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="15" t="s">
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:9">
-      <c r="A77" s="14">
+      <c r="A77" s="16">
         <v>70</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="31">
         <v>746</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="31">
         <v>1137</v>
       </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="52" t="s">
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="54" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:9">
-      <c r="A78" s="14">
+      <c r="A78" s="16">
         <v>303</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="21">
         <v>1218</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="53"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="55"/>
     </row>
     <row r="79" ht="15" spans="1:9">
-      <c r="A79" s="14">
+      <c r="A79" s="16">
         <v>53</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="31">
         <v>121</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="54"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="56"/>
     </row>
     <row r="80" ht="15" spans="1:9">
-      <c r="A80" s="31">
+      <c r="A80" s="33">
         <v>62</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="21">
         <v>63</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="21">
         <v>64</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="21">
         <v>120</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G80" s="23">
         <v>174</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H80" s="23">
         <v>931</v>
       </c>
-      <c r="I80" s="52" t="s">
+      <c r="I80" s="54" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:9">
-      <c r="A81" s="34"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="21">
+      <c r="A81" s="36"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="23">
         <v>1210</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="53"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="55"/>
     </row>
     <row r="82" ht="15" spans="1:9">
-      <c r="A82" s="14">
+      <c r="A82" s="16">
         <v>85</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="21">
         <v>221</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="31">
         <v>304</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="21">
         <v>1277</v>
       </c>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="54"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="56"/>
     </row>
     <row r="83" ht="15" spans="1:9">
-      <c r="A83" s="14">
+      <c r="A83" s="16">
         <v>198</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="21">
         <v>213</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="21">
         <v>309</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="21">
         <v>740</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="21">
         <v>790</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H83" s="21">
         <v>801</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:9">
-      <c r="A84" s="14">
+      <c r="A84" s="16">
         <v>279</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15" t="s">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:9">
-      <c r="A85" s="14">
+      <c r="A85" s="16">
         <v>139</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="23">
         <v>140</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="23">
         <v>818</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="52" t="s">
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="54" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:9">
-      <c r="A86" s="14">
+      <c r="A86" s="16">
         <v>300</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="21">
         <v>673</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="21">
         <v>1048</v>
       </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="53"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="55"/>
     </row>
     <row r="87" ht="15" spans="1:9">
-      <c r="A87" s="14">
+      <c r="A87" s="16">
         <v>96</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="54"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="56"/>
     </row>
     <row r="88" ht="15" spans="1:9">
-      <c r="A88" s="14">
+      <c r="A88" s="16">
         <v>1105</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="30" t="s">
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="32" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:9">
-      <c r="A89" s="14">
+      <c r="A89" s="16">
         <v>131</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="21">
         <v>89</v>
       </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="30" t="s">
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="32" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:9">
-      <c r="A90" s="31">
+      <c r="A90" s="33">
         <v>72</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="23">
         <v>10</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="23">
         <v>44</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="23">
         <v>97</v>
       </c>
-      <c r="G90" s="21">
+      <c r="G90" s="23">
         <v>115</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90" s="21">
         <v>583</v>
       </c>
-      <c r="I90" s="52" t="s">
+      <c r="I90" s="54" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:9">
-      <c r="A91" s="34"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="19">
+      <c r="A91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="21">
         <v>712</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="23">
         <v>1187</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="21">
         <v>1143</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="23">
         <v>1092</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H91" s="21">
         <v>718</v>
       </c>
-      <c r="I91" s="54"/>
+      <c r="I91" s="56"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="37">
+      <c r="A92" s="39">
         <v>1139</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="55" t="s">
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="57" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="41"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="56" t="s">
+    <row r="93" ht="15" spans="1:9">
+      <c r="A93" s="43"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="37">
+      <c r="A94" s="39">
         <v>688</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="45">
+      <c r="D94" s="47">
         <v>576</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E94" s="47">
         <v>935</v>
       </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="55" t="s">
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="41"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="56" t="s">
+    <row r="95" ht="15" spans="1:9">
+      <c r="A95" s="43"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:9">
-      <c r="A96" s="31">
+      <c r="A96" s="33">
         <v>322</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="21">
         <v>377</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="21">
         <v>416</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="21">
         <v>494</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96" s="21">
         <v>1043</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="21">
         <v>1049</v>
       </c>
-      <c r="I96" s="52" t="s">
+      <c r="I96" s="54" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:9">
-      <c r="A97" s="34"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="19">
+      <c r="A97" s="36"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="21">
         <v>1220</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="21">
         <v>1230</v>
       </c>
-      <c r="F97" s="19">
+      <c r="F97" s="21">
         <v>1262</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97" s="21">
         <v>1269</v>
       </c>
-      <c r="H97" s="14"/>
-      <c r="I97" s="54"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="56"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="37">
+      <c r="A98" s="39">
         <v>813</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="47">
+      <c r="D98" s="49">
         <v>1278</v>
       </c>
-      <c r="E98" s="47">
+      <c r="E98" s="49">
         <v>1335</v>
       </c>
-      <c r="F98" s="47">
+      <c r="F98" s="49">
         <v>410</v>
       </c>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="55" t="s">
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="41"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="56" t="s">
+    <row r="99" ht="15" spans="1:9">
+      <c r="A99" s="43"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="58" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="37">
+      <c r="A100" s="39">
         <v>1223</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="39" t="s">
+      <c r="C100" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="49"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="55" t="s">
+      <c r="D100" s="51"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="57" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="41"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="56" t="s">
+    <row r="101" ht="15" spans="1:9">
+      <c r="A101" s="43"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="58" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:9">
-      <c r="A102" s="14">
+      <c r="A102" s="16">
         <v>312</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D102" s="23">
         <v>664</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102" s="21">
         <v>1024</v>
       </c>
-      <c r="F102" s="19">
+      <c r="F102" s="21">
         <v>1039</v>
       </c>
-      <c r="G102" s="19">
+      <c r="G102" s="21">
         <v>1140</v>
       </c>
-      <c r="H102" s="19">
+      <c r="H102" s="21">
         <v>1130</v>
       </c>
-      <c r="I102" s="30" t="s">
+      <c r="I102" s="32" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="103" ht="15" spans="1:9">
-      <c r="A103" s="14">
+      <c r="A103" s="16">
         <v>741</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="30" t="s">
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:9">
-      <c r="A104" s="14">
+      <c r="A104" s="16">
         <v>546</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="30" t="s">
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="37">
+      <c r="A105" s="39">
         <v>943</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="47">
+      <c r="D105" s="49">
         <v>980</v>
       </c>
-      <c r="E105" s="47">
+      <c r="E105" s="49">
         <v>996</v>
       </c>
-      <c r="F105" s="47">
+      <c r="F105" s="49">
         <v>1125</v>
       </c>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="55" t="s">
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="41"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="56" t="s">
+    <row r="106" ht="15" spans="1:9">
+      <c r="A106" s="43"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="58" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3989,8 +3992,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4026,7 +4029,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10">
         <v>138</v>
       </c>
     </row>
@@ -4040,19 +4043,19 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>547</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
         <v>695</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="10">
         <v>733</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="10">
         <v>827</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <v>1162</v>
       </c>
     </row>
@@ -4066,7 +4069,7 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>1202</v>
       </c>
     </row>
@@ -4080,10 +4083,10 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>210</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <v>802</v>
       </c>
     </row>
@@ -4097,39 +4100,45 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>839</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>952</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="11">
         <v>990</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="11">
         <v>721</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>785</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>886</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>1042</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>997</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -4142,16 +4151,16 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <v>815</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>863</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>1129</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <v>1263</v>
       </c>
     </row>
@@ -4162,10 +4171,10 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>685</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>1319</v>
       </c>
     </row>
@@ -4176,16 +4185,16 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>787</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>882</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>924</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <v>1334</v>
       </c>
     </row>
@@ -4196,10 +4205,10 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
         <v>864</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>1298</v>
       </c>
     </row>
@@ -4226,10 +4235,10 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <v>980</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>996</v>
       </c>
     </row>
@@ -4264,6 +4273,12 @@
     <hyperlink ref="D6" r:id="rId16" display="839"/>
     <hyperlink ref="E6" r:id="rId17" display="952"/>
     <hyperlink ref="F6" r:id="rId18" display="990"/>
+    <hyperlink ref="G6" r:id="rId19" display="721"/>
+    <hyperlink ref="H6" r:id="rId20" display="737"/>
+    <hyperlink ref="A7" r:id="rId21" display="785"/>
+    <hyperlink ref="D7" r:id="rId22" display="886"/>
+    <hyperlink ref="E7" r:id="rId23" display="1042"/>
+    <hyperlink ref="A8" r:id="rId24" display="997"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4316,7 +4331,7 @@
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4325,7 +4340,7 @@
         <v>530</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4333,7 +4348,7 @@
         <v>700</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4342,7 +4357,7 @@
         <v>701</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4350,13 +4365,13 @@
         <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4364,13 +4379,13 @@
         <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4378,13 +4393,13 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4392,13 +4407,13 @@
         <v>501</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4406,13 +4421,13 @@
         <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4502,7 +4517,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4513,7 +4528,7 @@
         <v>206</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -4524,7 +4539,7 @@
         <v>141</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -4538,12 +4553,12 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>21</v>
       </c>
     </row>
@@ -4552,7 +4567,7 @@
         <v>147</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -4563,7 +4578,7 @@
         <v>148</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -4574,7 +4589,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -4655,7 +4670,7 @@
         <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4666,7 +4681,7 @@
         <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4680,7 +4695,7 @@
         <v>912</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -4690,8 +4705,8 @@
       <c r="A5" s="5">
         <v>315</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>156</v>
+      <c r="B5" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -4719,8 +4734,8 @@
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4758,10 +4773,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
       </c>
       <c r="D2" s="5">
         <v>144</v>
@@ -4793,10 +4808,10 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="5">
         <v>101</v>
@@ -4822,10 +4837,10 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="5">
         <v>107</v>
@@ -4842,12 +4857,12 @@
         <v>814</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
         <v>669</v>
       </c>
       <c r="E5" s="5">
@@ -4859,12 +4874,12 @@
         <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
         <v>113</v>
       </c>
       <c r="E6" s="5">
@@ -4876,10 +4891,10 @@
         <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="5">
         <v>257</v>
@@ -4890,10 +4905,10 @@
         <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="5">
         <v>235</v>
@@ -4903,11 +4918,11 @@
       <c r="A9" s="1">
         <v>297</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
+      <c r="B9" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4915,10 +4930,10 @@
         <v>508</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4926,10 +4941,10 @@
         <v>124</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="5">
         <v>543</v>
@@ -4939,14 +4954,14 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>968</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="5">
         <v>337</v>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Leetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356A5441-8F87-45BA-A360-9CD139A6DCEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="1425" yWindow="3450" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
   <si>
     <t>Graph（图论）</t>
   </si>
@@ -529,23 +535,21 @@
   </si>
   <si>
     <t>监控二叉树</t>
+  </si>
+  <si>
+    <t>最小基因变化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -553,187 +557,72 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14.4"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,194 +653,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1130,469 +833,188 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="59">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="48" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1716,7 +1138,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1740,9 +1162,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1766,7 +1188,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1819,7 +1241,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1844,1893 +1266,1913 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.375" style="12" customWidth="true"/>
-    <col min="2" max="2" width="26.625" style="12" customWidth="true"/>
-    <col min="3" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="30.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="14"/>
-    </row>
-    <row r="4" ht="15" spans="1:9">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" ht="15" spans="1:9">
-      <c r="A5" s="16" t="s">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="17" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:9">
-      <c r="A6" s="16">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <v>133</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>138</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="16">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>200</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>547</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>695</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="27">
         <v>733</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <v>827</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>1162</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:9">
-      <c r="A8" s="16">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
         <v>841</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>1202</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="true" spans="1:9">
-      <c r="A9" s="16">
+    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
         <v>207</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="19">
         <v>210</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>802</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:9">
-      <c r="A10" s="16">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>399</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="19">
         <v>839</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>952</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>990</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>721</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>737</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:9">
-      <c r="A11" s="16">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>785</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="19">
         <v>886</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>1042</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:9">
-      <c r="A12" s="16">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
         <v>997</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17" t="s">
+      <c r="C12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:9">
-      <c r="A13" s="16">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>433</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="23">
+      <c r="C13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="21">
         <v>815</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>863</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>1129</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <v>1263</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:9">
-      <c r="A14" s="16">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
         <v>684</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
         <v>685</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>1319</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="16">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>743</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>787</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>882</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>924</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>1334</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:9">
-      <c r="A16" s="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
         <v>847</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <v>864</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>1298</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:9">
-      <c r="A17" s="16">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
         <v>332</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:9">
-      <c r="A18" s="16">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>1192</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:9">
-      <c r="A19" s="16">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
         <v>943</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="21">
         <v>980</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>996</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:9">
-      <c r="A20" s="16">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>959</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:1">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:1">
-      <c r="A24" s="14"/>
-    </row>
-    <row r="25" ht="15" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" ht="15" spans="1:11">
-      <c r="A26" s="16" t="s">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="17" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:11">
-      <c r="A27" s="16">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
         <v>17</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>39</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>40</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>77</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="19">
         <v>78</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <v>90</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="19">
         <v>216</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="32" t="s">
+      <c r="J27" s="16"/>
+      <c r="K27" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:11">
-      <c r="A28" s="16">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
         <v>46</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>47</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>784</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="21">
         <v>943</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="21">
         <v>996</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17" t="s">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:11">
-      <c r="A29" s="16">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
         <v>22</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="C29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="21">
         <v>301</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:11">
-      <c r="A30" s="16">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
         <v>37</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="C30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="19">
         <v>51</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <v>52</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17" t="s">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:11">
-      <c r="A31" s="16">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
         <v>79</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="21">
         <v>212</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:11">
-      <c r="A32" s="16">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
         <v>127</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="21">
         <v>126</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>752</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="21">
         <v>818</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:11">
-      <c r="A33" s="16">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
         <v>542</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="23">
+      <c r="C33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="21">
         <v>675</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>934</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:11">
-      <c r="A34" s="16">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
         <v>698</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="C34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="19">
         <v>93</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <v>131</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="19">
         <v>241</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="21">
         <v>282</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="19">
         <v>842</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17" t="s">
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="1:1">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:1">
-      <c r="A38" s="14"/>
-    </row>
-    <row r="39" ht="15" spans="1:11">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" ht="15" spans="1:11">
-      <c r="A40" s="16" t="s">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="17" t="s">
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:11">
-      <c r="A41" s="16">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
         <v>35</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="19">
         <v>34</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="27">
         <v>704</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="19">
         <v>981</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17" t="s">
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:11">
-      <c r="A42" s="16">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <v>33</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="21">
+      <c r="C42" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="19">
         <v>81</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <v>153</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="19">
         <v>154</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="19">
         <v>162</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="27">
         <v>852</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17" t="s">
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:11">
-      <c r="A43" s="16">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
         <v>69</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17" t="s">
+      <c r="C43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:11">
-      <c r="A44" s="16">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
         <v>74</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17" t="s">
+      <c r="C44" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:11">
-      <c r="A45" s="16">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
         <v>875</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="21">
+      <c r="C45" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="19">
         <v>1011</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="32" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:11">
-      <c r="A46" s="16">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>4</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
-    </row>
-    <row r="47" ht="15" spans="1:11">
-      <c r="A47" s="16">
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
         <v>378</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="21">
         <v>668</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17" t="s">
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:11">
-      <c r="A48" s="16">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
         <v>719</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="21">
         <v>786</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17" t="s">
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" ht="18" spans="1:1">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:1">
-      <c r="A52" s="14"/>
-    </row>
-    <row r="53" ht="15" spans="1:11">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" ht="15" spans="1:11">
-      <c r="A54" s="16" t="s">
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="32" t="s">
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:11">
-      <c r="A55" s="16">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
         <v>11</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="21">
         <v>42</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" ht="15" spans="1:11">
-      <c r="A56" s="16">
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
         <v>125</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="24">
         <v>455</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-    </row>
-    <row r="57" ht="15" spans="1:11">
-      <c r="A57" s="16">
+      <c r="E56" s="26"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>917</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="25">
         <v>925</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="25">
         <v>986</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57" s="25">
         <v>855</v>
       </c>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-    </row>
-    <row r="58" ht="15" spans="1:11">
-      <c r="A58" s="16">
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
         <v>167</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="27">
+      <c r="C58" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="25">
         <v>15</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="25">
         <v>16</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" ht="15" spans="1:11">
-      <c r="A59" s="16">
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
         <v>977</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="32" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="1:11">
-      <c r="A60" s="16">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
         <v>992</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="63" ht="18" spans="1:1">
-      <c r="A63" s="13" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:1">
-      <c r="A64" s="14"/>
-    </row>
-    <row r="65" ht="15" spans="1:10">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-    </row>
-    <row r="66" ht="15" spans="1:10">
-      <c r="A66" s="16" t="s">
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="17" t="s">
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:10">
-      <c r="A67" s="16">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
         <v>208</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="21">
+      <c r="C67" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="19">
         <v>648</v>
       </c>
-      <c r="E67" s="53">
+      <c r="E67" s="29">
         <v>676</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="19">
         <v>677</v>
       </c>
-      <c r="G67" s="31">
+      <c r="G67" s="27">
         <v>720</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="21">
         <v>745</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I67" s="20">
         <v>211</v>
       </c>
-      <c r="J67" s="17" t="s">
+      <c r="J67" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:10">
-      <c r="A68" s="16">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
         <v>307</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="17" t="s">
+      <c r="C68" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:10">
-      <c r="A69" s="16">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
         <v>901</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="21">
+      <c r="C69" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="19">
         <v>907</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="19">
         <v>1019</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="17" t="s">
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:10">
-      <c r="A70" s="16">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="15">
         <v>239</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="17" t="s">
+      <c r="C70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" ht="18" spans="1:1">
-      <c r="A73" s="13" t="s">
+    <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="1:1">
-      <c r="A74" s="14"/>
-    </row>
-    <row r="75" ht="15" spans="1:9">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-    </row>
-    <row r="76" ht="15" spans="1:9">
-      <c r="A76" s="16" t="s">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="17" t="s">
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" ht="15" spans="1:9">
-      <c r="A77" s="16">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
         <v>70</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="31">
+      <c r="D77" s="27">
         <v>746</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="27">
         <v>1137</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="54" t="s">
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="1:9">
-      <c r="A78" s="16">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
         <v>303</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="19">
         <v>1218</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="55"/>
-    </row>
-    <row r="79" ht="15" spans="1:9">
-      <c r="A79" s="16">
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="57"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="15">
         <v>53</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="31">
+      <c r="D79" s="27">
         <v>121</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="56"/>
-    </row>
-    <row r="80" ht="15" spans="1:9">
-      <c r="A80" s="33">
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="58"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="36">
         <v>62</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="19">
         <v>63</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="19">
         <v>64</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="19">
         <v>120</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G80" s="21">
         <v>174</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H80" s="21">
         <v>931</v>
       </c>
-      <c r="I80" s="54" t="s">
+      <c r="I80" s="56" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="1:9">
-      <c r="A81" s="36"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="23">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="37"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="21">
         <v>1210</v>
       </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="55"/>
-    </row>
-    <row r="82" ht="15" spans="1:9">
-      <c r="A82" s="16">
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="57"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="15">
         <v>85</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="21">
+      <c r="C82" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="19">
         <v>221</v>
       </c>
-      <c r="E82" s="31">
+      <c r="E82" s="27">
         <v>304</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="19">
         <v>1277</v>
       </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="56"/>
-    </row>
-    <row r="83" ht="15" spans="1:9">
-      <c r="A83" s="16">
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="58"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="15">
         <v>198</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="21">
+      <c r="C83" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="19">
         <v>213</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="19">
         <v>309</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="19">
         <v>740</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="19">
         <v>790</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H83" s="19">
         <v>801</v>
       </c>
-      <c r="I83" s="17" t="s">
+      <c r="I83" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="1:9">
-      <c r="A84" s="16">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="15">
         <v>279</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17" t="s">
+      <c r="C84" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="1:9">
-      <c r="A85" s="16">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
         <v>139</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="23">
+      <c r="C85" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="21">
         <v>140</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="21">
         <v>818</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="54" t="s">
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="1:9">
-      <c r="A86" s="16">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="15">
         <v>300</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="21">
+      <c r="C86" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="19">
         <v>673</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="19">
         <v>1048</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="55"/>
-    </row>
-    <row r="87" ht="15" spans="1:9">
-      <c r="A87" s="16">
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="57"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="15">
         <v>96</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="56"/>
-    </row>
-    <row r="88" ht="15" spans="1:9">
-      <c r="A88" s="16">
+      <c r="C87" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="58"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="15">
         <v>1105</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="32" t="s">
+      <c r="C88" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" ht="15" spans="1:9">
-      <c r="A89" s="16">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="15">
         <v>131</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="21">
+      <c r="C89" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="19">
         <v>89</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="32" t="s">
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" ht="15" spans="1:9">
-      <c r="A90" s="33">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="36">
         <v>72</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="23">
+      <c r="C90" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="21">
         <v>10</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="21">
         <v>44</v>
       </c>
-      <c r="F90" s="23">
+      <c r="F90" s="21">
         <v>97</v>
       </c>
-      <c r="G90" s="23">
+      <c r="G90" s="21">
         <v>115</v>
       </c>
-      <c r="H90" s="21">
+      <c r="H90" s="19">
         <v>583</v>
       </c>
-      <c r="I90" s="54" t="s">
+      <c r="I90" s="56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="1:9">
-      <c r="A91" s="36"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="21">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="37"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="19">
         <v>712</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="21">
         <v>1187</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="19">
         <v>1143</v>
       </c>
-      <c r="G91" s="23">
+      <c r="G91" s="21">
         <v>1092</v>
       </c>
-      <c r="H91" s="21">
+      <c r="H91" s="19">
         <v>718</v>
       </c>
-      <c r="I91" s="56"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="39">
+      <c r="I91" s="58"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="38">
         <v>1139</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="57" t="s">
+      <c r="C92" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="1:9">
-      <c r="A93" s="43"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="58" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="39"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="39">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="38">
         <v>688</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C94" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="47">
+      <c r="C94" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="50">
         <v>576</v>
       </c>
-      <c r="E94" s="47">
+      <c r="E94" s="50">
         <v>935</v>
       </c>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="57" t="s">
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" ht="15" spans="1:9">
-      <c r="A95" s="43"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="58" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="39"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="1:9">
-      <c r="A96" s="33">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="36">
         <v>322</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="21">
+      <c r="C96" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="19">
         <v>377</v>
       </c>
-      <c r="E96" s="21">
+      <c r="E96" s="19">
         <v>416</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="19">
         <v>494</v>
       </c>
-      <c r="G96" s="21">
+      <c r="G96" s="19">
         <v>1043</v>
       </c>
-      <c r="H96" s="21">
+      <c r="H96" s="19">
         <v>1049</v>
       </c>
-      <c r="I96" s="54" t="s">
+      <c r="I96" s="56" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="1:9">
-      <c r="A97" s="36"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="21">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="37"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="19">
         <v>1220</v>
       </c>
-      <c r="E97" s="21">
+      <c r="E97" s="19">
         <v>1230</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="19">
         <v>1262</v>
       </c>
-      <c r="G97" s="21">
+      <c r="G97" s="19">
         <v>1269</v>
       </c>
-      <c r="H97" s="16"/>
-      <c r="I97" s="56"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="39">
+      <c r="H97" s="15"/>
+      <c r="I97" s="58"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="38">
         <v>813</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="49">
+      <c r="D98" s="52">
         <v>1278</v>
       </c>
-      <c r="E98" s="49">
+      <c r="E98" s="52">
         <v>1335</v>
       </c>
-      <c r="F98" s="49">
+      <c r="F98" s="52">
         <v>410</v>
       </c>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="57" t="s">
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" ht="15" spans="1:9">
-      <c r="A99" s="43"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="58" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="39"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="39">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="38">
         <v>1223</v>
       </c>
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="41" t="s">
+      <c r="C100" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="51"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="57" t="s">
+      <c r="D100" s="54"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="1:9">
-      <c r="A101" s="43"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="58" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="39"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:9">
-      <c r="A102" s="16">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="15">
         <v>312</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="21">
         <v>664</v>
       </c>
-      <c r="E102" s="21">
+      <c r="E102" s="19">
         <v>1024</v>
       </c>
-      <c r="F102" s="21">
+      <c r="F102" s="19">
         <v>1039</v>
       </c>
-      <c r="G102" s="21">
+      <c r="G102" s="19">
         <v>1140</v>
       </c>
-      <c r="H102" s="21">
+      <c r="H102" s="19">
         <v>1130</v>
       </c>
-      <c r="I102" s="32" t="s">
+      <c r="I102" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="1:9">
-      <c r="A103" s="16">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="15">
         <v>741</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="32" t="s">
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="1:9">
-      <c r="A104" s="16">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="15">
         <v>546</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="32" t="s">
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="39">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="38">
         <v>943</v>
       </c>
-      <c r="B105" s="40" t="s">
+      <c r="B105" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="49">
+      <c r="D105" s="52">
         <v>980</v>
       </c>
-      <c r="E105" s="49">
+      <c r="E105" s="52">
         <v>996</v>
       </c>
-      <c r="F105" s="49">
+      <c r="F105" s="52">
         <v>1125</v>
       </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="57" t="s">
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="1:9">
-      <c r="A106" s="43"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="58" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="39"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="31" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="151" ht="42" customHeight="true"/>
-    <row r="153" ht="56.25" customHeight="true"/>
-    <row r="157" ht="27.75" customHeight="true"/>
-    <row r="159" ht="27.75" customHeight="true"/>
-    <row r="164" ht="42" customHeight="true"/>
+    <row r="151" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D105:D106"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A100:A101"/>
@@ -3743,265 +3185,244 @@
     <mergeCell ref="B98:B99"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="B105:B106"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
     <mergeCell ref="C80:C81"/>
     <mergeCell ref="C90:C91"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D105:D106"/>
     <mergeCell ref="E92:E93"/>
     <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F105:F106"/>
     <mergeCell ref="G92:G93"/>
     <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D66:I66"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="Clone Graph"/>
-    <hyperlink ref="D6" r:id="rId2" display="138"/>
-    <hyperlink ref="B7" r:id="rId3" display="Number of Islands"/>
-    <hyperlink ref="D7" r:id="rId4" display="547"/>
-    <hyperlink ref="E7" r:id="rId5" display="695"/>
-    <hyperlink ref="F7" r:id="rId6" display="733"/>
-    <hyperlink ref="G7" r:id="rId7" display="827"/>
-    <hyperlink ref="H7" r:id="rId8" display="1162"/>
-    <hyperlink ref="B8" r:id="rId9" display="Keys and Rooms"/>
-    <hyperlink ref="D8" r:id="rId10" display="1202"/>
-    <hyperlink ref="B9" r:id="rId11" display="Course Schedule"/>
-    <hyperlink ref="D9" r:id="rId12" display="210"/>
-    <hyperlink ref="E9" r:id="rId13" display="802"/>
-    <hyperlink ref="B10" r:id="rId14" display="Evaluate Division"/>
-    <hyperlink ref="D10" r:id="rId15" display="839"/>
-    <hyperlink ref="E10" r:id="rId16" display="952"/>
-    <hyperlink ref="F10" r:id="rId17" display="990"/>
-    <hyperlink ref="G10" r:id="rId18" display="721"/>
-    <hyperlink ref="H10" r:id="rId19" display="737"/>
-    <hyperlink ref="B11" r:id="rId20" display="Is Graph Bipartite?"/>
-    <hyperlink ref="D11" r:id="rId21" display="886"/>
-    <hyperlink ref="E11" r:id="rId22" display="1042"/>
-    <hyperlink ref="B12" r:id="rId23" display="Find the Town Judge"/>
-    <hyperlink ref="B13" r:id="rId24" display="Minimum Genetic Mutation"/>
-    <hyperlink ref="D13" r:id="rId25" display="815"/>
-    <hyperlink ref="E13" r:id="rId26" display="863"/>
-    <hyperlink ref="F13" r:id="rId27" display="1129"/>
-    <hyperlink ref="G13" r:id="rId28" display="1263"/>
-    <hyperlink ref="B14" r:id="rId29" display="Redundant Connection"/>
-    <hyperlink ref="D14" r:id="rId30" display="685"/>
-    <hyperlink ref="E14" r:id="rId31" display="1319"/>
-    <hyperlink ref="B15" r:id="rId32" display="Network Delay Time"/>
-    <hyperlink ref="D15" r:id="rId33" display="787"/>
-    <hyperlink ref="E15" r:id="rId34" display="882"/>
-    <hyperlink ref="F15" r:id="rId35" display="924"/>
-    <hyperlink ref="G15" r:id="rId36" display="1334"/>
-    <hyperlink ref="B16" r:id="rId37" display="Shortest Path Visiting All Nodes"/>
-    <hyperlink ref="D16" r:id="rId38" display="864"/>
-    <hyperlink ref="E16" r:id="rId39" display="1298"/>
-    <hyperlink ref="B17" r:id="rId40" display="Reconstruct Itinerary"/>
-    <hyperlink ref="B18" r:id="rId41" display="Critical Connections in a Network"/>
-    <hyperlink ref="B19" r:id="rId42" display="Find the Shortest Superstring"/>
-    <hyperlink ref="D19" r:id="rId43" display="980"/>
-    <hyperlink ref="E19" r:id="rId44" display="996"/>
-    <hyperlink ref="B20" r:id="rId45" display="Regions Cut By Slashes"/>
-    <hyperlink ref="B27" r:id="rId46" display="Letter Combinations of a Phone Number"/>
-    <hyperlink ref="D27" r:id="rId47" display="39"/>
-    <hyperlink ref="E27" r:id="rId48" display="40"/>
-    <hyperlink ref="F27" r:id="rId49" display="77"/>
-    <hyperlink ref="G27" r:id="rId50" display="78"/>
-    <hyperlink ref="H27" r:id="rId51" display="90"/>
-    <hyperlink ref="I27" r:id="rId52" display="216"/>
-    <hyperlink ref="B28" r:id="rId53" display="Permutations"/>
-    <hyperlink ref="D28" r:id="rId54" display="47"/>
-    <hyperlink ref="E28" r:id="rId55" display="784"/>
-    <hyperlink ref="F28" r:id="rId42" display="943"/>
-    <hyperlink ref="G28" r:id="rId44" display="996"/>
-    <hyperlink ref="B29" r:id="rId56" display="Generate Parentheses"/>
-    <hyperlink ref="D29" r:id="rId57" display="301"/>
-    <hyperlink ref="B30" r:id="rId58" display="Sudoku Solver"/>
-    <hyperlink ref="D30" r:id="rId59" display="51"/>
-    <hyperlink ref="E30" r:id="rId60" display="52"/>
-    <hyperlink ref="B31" r:id="rId61" display="Word Search"/>
-    <hyperlink ref="D31" r:id="rId62" display="212"/>
-    <hyperlink ref="B32" r:id="rId63" display="Word Ladder"/>
-    <hyperlink ref="D32" r:id="rId64" display="126"/>
-    <hyperlink ref="E32" r:id="rId65" display="752"/>
-    <hyperlink ref="F32" r:id="rId66" display="818"/>
-    <hyperlink ref="B33" r:id="rId67" display="01 Matrix"/>
-    <hyperlink ref="D33" r:id="rId68" display="675"/>
-    <hyperlink ref="E33" r:id="rId69" display="934"/>
-    <hyperlink ref="B34" r:id="rId70" display="Partition to K Equal Sum Subsets"/>
-    <hyperlink ref="D34" r:id="rId71" display="93"/>
-    <hyperlink ref="E34" r:id="rId72" display="131"/>
-    <hyperlink ref="F34" r:id="rId73" display="241"/>
-    <hyperlink ref="G34" r:id="rId74" display="282"/>
-    <hyperlink ref="H34" r:id="rId75" display="842"/>
-    <hyperlink ref="B41" r:id="rId76" display="Search Insert Position"/>
-    <hyperlink ref="D41" r:id="rId77" display="34"/>
-    <hyperlink ref="E41" r:id="rId78" display="704"/>
-    <hyperlink ref="F41" r:id="rId79" display="981"/>
-    <hyperlink ref="B42" r:id="rId80" display="Search in Rotated Sorted Array"/>
-    <hyperlink ref="D42" r:id="rId81" display="81"/>
-    <hyperlink ref="E42" r:id="rId82" display="153"/>
-    <hyperlink ref="F42" r:id="rId83" display="154"/>
-    <hyperlink ref="G42" r:id="rId84" display="162"/>
-    <hyperlink ref="H42" r:id="rId85" display="852"/>
-    <hyperlink ref="B43" r:id="rId86" display="Sqrt(x)"/>
-    <hyperlink ref="B44" r:id="rId87" display="Search a 2D Matrix"/>
-    <hyperlink ref="B45" r:id="rId88" display="Koko Eating Bananas"/>
-    <hyperlink ref="D45" r:id="rId89" display="1011"/>
-    <hyperlink ref="B46" r:id="rId90" display="Median of Two Sorted Arrays"/>
-    <hyperlink ref="B47" r:id="rId91" display="Kth Smallest Element in a Sorted Matrix"/>
-    <hyperlink ref="D47" r:id="rId92" display="668"/>
-    <hyperlink ref="B48" r:id="rId93" display="Find K-th Smallest Pair Distance"/>
-    <hyperlink ref="D48" r:id="rId94" display="786"/>
-    <hyperlink ref="B55" r:id="rId95" display="Container With Most Water"/>
-    <hyperlink ref="D55" r:id="rId96" display="42"/>
-    <hyperlink ref="B56" r:id="rId97" display="Valid Palindrome"/>
-    <hyperlink ref="D56" r:id="rId98" display="455"/>
-    <hyperlink ref="B57" r:id="rId99" display="Reverse Only Letters"/>
-    <hyperlink ref="D57" r:id="rId100" display="925"/>
-    <hyperlink ref="E57" r:id="rId101" display="986"/>
-    <hyperlink ref="F57" r:id="rId102" display="855"/>
-    <hyperlink ref="B58" r:id="rId103" display="Two Sum II – Input array is sorted"/>
-    <hyperlink ref="D58" r:id="rId104" display="15"/>
-    <hyperlink ref="E58" r:id="rId105" display="16"/>
-    <hyperlink ref="B59" r:id="rId106" display="Squares of a Sorted Array"/>
-    <hyperlink ref="B60" r:id="rId107" display="Subarrays with K Different Integers"/>
-    <hyperlink ref="B67" r:id="rId108" display="Implement Trie (Prefix Tree)"/>
-    <hyperlink ref="D67" r:id="rId109" display="648"/>
-    <hyperlink ref="E67" r:id="rId110" display="676"/>
-    <hyperlink ref="F67" r:id="rId111" display="677"/>
-    <hyperlink ref="G67" r:id="rId112" display="720"/>
-    <hyperlink ref="H67" r:id="rId113" display="745"/>
-    <hyperlink ref="B68" r:id="rId114" display="Range Sum Query – Mutable"/>
-    <hyperlink ref="B69" r:id="rId115" display="Online Stock Span"/>
-    <hyperlink ref="D69" r:id="rId116" display="907"/>
-    <hyperlink ref="E69" r:id="rId117" display="1019"/>
-    <hyperlink ref="B70" r:id="rId118" display="Sliding Window Maximum"/>
-    <hyperlink ref="B77" r:id="rId119" display="Climbing Stairs"/>
-    <hyperlink ref="D77" r:id="rId120" display="746"/>
-    <hyperlink ref="E77" r:id="rId121" display="1137"/>
-    <hyperlink ref="B78" r:id="rId122" display="Range Sum Query – Immutable"/>
-    <hyperlink ref="D78" r:id="rId123" display="1218"/>
-    <hyperlink ref="B79" r:id="rId124" display="Maximum Subarray"/>
-    <hyperlink ref="D79" r:id="rId125" display="121"/>
-    <hyperlink ref="B80" r:id="rId126" display="Unique Paths"/>
-    <hyperlink ref="D80" r:id="rId127" display="63"/>
-    <hyperlink ref="E80" r:id="rId128" display="64"/>
-    <hyperlink ref="F80" r:id="rId129" display="120"/>
-    <hyperlink ref="G80" r:id="rId130" display="174"/>
-    <hyperlink ref="H80" r:id="rId131" display="931"/>
-    <hyperlink ref="D81" r:id="rId132" display="1210"/>
-    <hyperlink ref="B82" r:id="rId133" display="Maximal Rectangle"/>
-    <hyperlink ref="D82" r:id="rId134" display="221"/>
-    <hyperlink ref="E82" r:id="rId135" display="304"/>
-    <hyperlink ref="F82" r:id="rId136" display="1277"/>
-    <hyperlink ref="B83" r:id="rId137" display="House Robber"/>
-    <hyperlink ref="D83" r:id="rId138" display="213"/>
-    <hyperlink ref="E83" r:id="rId139" display="309"/>
-    <hyperlink ref="F83" r:id="rId140" display="740"/>
-    <hyperlink ref="G83" r:id="rId141" display="790"/>
-    <hyperlink ref="H83" r:id="rId142" display="801"/>
-    <hyperlink ref="B84" r:id="rId143" display="Perfect Squares"/>
-    <hyperlink ref="B85" r:id="rId144" display="Word Break"/>
-    <hyperlink ref="D85" r:id="rId145" display="140"/>
-    <hyperlink ref="E85" r:id="rId66" display="818"/>
-    <hyperlink ref="B86" r:id="rId146" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="D86" r:id="rId147" display="673"/>
-    <hyperlink ref="E86" r:id="rId148" display="1048"/>
-    <hyperlink ref="B87" r:id="rId149" display="Unique Binary Search Trees"/>
-    <hyperlink ref="B88" r:id="rId150" display="Filling Bookcase Shelves"/>
-    <hyperlink ref="B89" r:id="rId72" display="Palindrome Partitioning"/>
-    <hyperlink ref="D89" r:id="rId151" display="89"/>
-    <hyperlink ref="B90" r:id="rId152" display="Edit Distance"/>
-    <hyperlink ref="D90" r:id="rId153" display="10"/>
-    <hyperlink ref="E90" r:id="rId154" display="44"/>
-    <hyperlink ref="F90" r:id="rId155" display="97"/>
-    <hyperlink ref="G90" r:id="rId156" display="115"/>
-    <hyperlink ref="H90" r:id="rId157" display="583"/>
-    <hyperlink ref="D91" r:id="rId158" display="712"/>
-    <hyperlink ref="E91" r:id="rId159" display="1187"/>
-    <hyperlink ref="F91" r:id="rId160" display="1143"/>
-    <hyperlink ref="G91" r:id="rId161" display="1092"/>
-    <hyperlink ref="H91" r:id="rId162" display="718"/>
-    <hyperlink ref="B92" r:id="rId163" display="Largest 1-Bordered Square"/>
-    <hyperlink ref="B94" r:id="rId164" display="Knight Probability in Chessboard"/>
-    <hyperlink ref="D94" r:id="rId165" display="576"/>
-    <hyperlink ref="E94" r:id="rId166" display="935"/>
-    <hyperlink ref="B96" r:id="rId167" display="Coin Change"/>
-    <hyperlink ref="D96" r:id="rId168" display="377"/>
-    <hyperlink ref="E96" r:id="rId169" display="416"/>
-    <hyperlink ref="F96" r:id="rId170" display="494"/>
-    <hyperlink ref="G96" r:id="rId171" display="1043"/>
-    <hyperlink ref="H96" r:id="rId148" display="1049"/>
-    <hyperlink ref="D97" r:id="rId172" display="1220"/>
-    <hyperlink ref="E97" r:id="rId173" display="1230"/>
-    <hyperlink ref="F97" r:id="rId174" display="1262"/>
-    <hyperlink ref="G97" r:id="rId175" display="1269"/>
-    <hyperlink ref="B98" r:id="rId176" display="Largest Sum of Averages"/>
-    <hyperlink ref="D98" r:id="rId177" display="1278"/>
-    <hyperlink ref="E98" r:id="rId178" display="1335"/>
-    <hyperlink ref="F98" r:id="rId179" display="410"/>
-    <hyperlink ref="B100" r:id="rId180" display="Dice Roll Simulation"/>
-    <hyperlink ref="B102" r:id="rId181" display="Burst Balloons"/>
-    <hyperlink ref="D102" r:id="rId182" display="664"/>
-    <hyperlink ref="E102" r:id="rId183" display="1024"/>
-    <hyperlink ref="F102" r:id="rId184" display="1039"/>
-    <hyperlink ref="G102" r:id="rId185" display="1140"/>
-    <hyperlink ref="H102" r:id="rId186" display="1130"/>
-    <hyperlink ref="B103" r:id="rId187" display="Cherry Pickup"/>
-    <hyperlink ref="B104" r:id="rId188" display="Remove Boxes"/>
-    <hyperlink ref="B105" r:id="rId42" display="Find the Shortest Superstring"/>
-    <hyperlink ref="D105" r:id="rId43" display="980"/>
-    <hyperlink ref="E105" r:id="rId44" display="996"/>
-    <hyperlink ref="F105" r:id="rId189" display="1125"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" display="138" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" display="547" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" display="695" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" display="733" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G7" r:id="rId7" display="827" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H7" r:id="rId8" display="1162" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D8" r:id="rId10" display="1202" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D9" r:id="rId12" display="210" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E9" r:id="rId13" display="802" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D10" r:id="rId15" display="839" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E10" r:id="rId16" display="952" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F10" r:id="rId17" display="990" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId18" display="721" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H10" r:id="rId19" display="737" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D11" r:id="rId21" display="886" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E11" r:id="rId22" display="1042" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D13" r:id="rId25" display="815" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E13" r:id="rId26" display="863" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F13" r:id="rId27" display="1129" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G13" r:id="rId28" display="1263" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D14" r:id="rId30" display="685" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E14" r:id="rId31" display="1319" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B15" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D15" r:id="rId33" display="787" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E15" r:id="rId34" display="882" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F15" r:id="rId35" display="924" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G15" r:id="rId36" display="1334" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B16" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D16" r:id="rId38" display="864" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E16" r:id="rId39" display="1298" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B17" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B18" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B19" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D19" r:id="rId43" display="980" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E19" r:id="rId44" display="996" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B20" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B27" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D27" r:id="rId47" display="39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E27" r:id="rId48" display="40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F27" r:id="rId49" display="77" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G27" r:id="rId50" display="78" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H27" r:id="rId51" display="90" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I27" r:id="rId52" display="216" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D28" r:id="rId54" display="47" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E28" r:id="rId55" display="784" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F28" r:id="rId56" display="943" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G28" r:id="rId57" display="996" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B29" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D29" r:id="rId59" display="301" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B30" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D30" r:id="rId61" display="51" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E30" r:id="rId62" display="52" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B31" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D31" r:id="rId64" display="212" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B32" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D32" r:id="rId66" display="126" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E32" r:id="rId67" display="752" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F32" r:id="rId68" display="818" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B33" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D33" r:id="rId70" display="675" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E33" r:id="rId71" display="934" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B34" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D34" r:id="rId73" display="93" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E34" r:id="rId74" display="131" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F34" r:id="rId75" display="241" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G34" r:id="rId76" display="282" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H34" r:id="rId77" display="842" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B41" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D41" r:id="rId79" display="34" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E41" r:id="rId80" display="704" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F41" r:id="rId81" display="981" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D42" r:id="rId83" display="81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E42" r:id="rId84" display="153" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F42" r:id="rId85" display="154" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G42" r:id="rId86" display="162" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H42" r:id="rId87" display="852" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B43" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B44" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B45" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D45" r:id="rId91" display="1011" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B47" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D47" r:id="rId94" display="668" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B48" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D48" r:id="rId96" display="786" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B55" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D55" r:id="rId98" display="42" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B56" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D56" r:id="rId100" display="455" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B57" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D57" r:id="rId102" display="925" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E57" r:id="rId103" display="986" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F57" r:id="rId104" display="855" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B58" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D58" r:id="rId106" display="15" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E58" r:id="rId107" display="16" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B59" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B60" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B67" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D67" r:id="rId111" display="648" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E67" r:id="rId112" display="676" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F67" r:id="rId113" display="677" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G67" r:id="rId114" display="720" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H67" r:id="rId115" display="745" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B68" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B69" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D69" r:id="rId118" display="907" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E69" r:id="rId119" display="1019" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B70" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B77" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D77" r:id="rId122" display="746" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E77" r:id="rId123" display="1137" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B78" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D78" r:id="rId125" display="1218" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B79" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D79" r:id="rId127" display="121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B80" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D80" r:id="rId129" display="63" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E80" r:id="rId130" display="64" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F80" r:id="rId131" display="120" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G80" r:id="rId132" display="174" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H80" r:id="rId133" display="931" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D81" r:id="rId134" display="1210" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B82" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D82" r:id="rId136" display="221" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E82" r:id="rId137" display="304" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F82" r:id="rId138" display="1277" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B83" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D83" r:id="rId140" display="213" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E83" r:id="rId141" display="309" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F83" r:id="rId142" display="740" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G83" r:id="rId143" display="790" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="H83" r:id="rId144" display="801" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B84" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B85" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D85" r:id="rId147" display="140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E85" r:id="rId148" display="818" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B86" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D86" r:id="rId150" display="673" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E86" r:id="rId151" display="1048" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B87" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B88" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B89" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D89" r:id="rId155" display="89" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B90" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D90" r:id="rId157" display="10" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E90" r:id="rId158" display="44" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="F90" r:id="rId159" display="97" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="G90" r:id="rId160" display="115" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="H90" r:id="rId161" display="583" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D91" r:id="rId162" display="712" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E91" r:id="rId163" display="1187" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="F91" r:id="rId164" display="1143" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G91" r:id="rId165" display="1092" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="H91" r:id="rId166" display="718" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B92" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B94" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D94" r:id="rId169" display="576" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E94" r:id="rId170" display="935" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B96" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D96" r:id="rId172" display="377" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E96" r:id="rId173" display="416" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F96" r:id="rId174" display="494" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="G96" r:id="rId175" display="1043" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="H96" r:id="rId176" display="1049" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D97" r:id="rId177" display="1220" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E97" r:id="rId178" display="1230" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="F97" r:id="rId179" display="1262" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G97" r:id="rId180" display="1269" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B98" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D98" r:id="rId182" display="1278" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E98" r:id="rId183" display="1335" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="F98" r:id="rId184" display="410" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B100" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B102" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D102" r:id="rId187" display="664" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E102" r:id="rId188" display="1024" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="F102" r:id="rId189" display="1039" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G102" r:id="rId190" display="1140" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="H102" r:id="rId191" display="1130" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B103" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B104" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B105" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D105" r:id="rId195" display="980" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E105" r:id="rId196" display="996" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="F105" r:id="rId197" display="1125" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="true"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4011,16 +3432,16 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>133</v>
       </c>
       <c r="B2" t="s">
@@ -4029,12 +3450,12 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>200</v>
       </c>
       <c r="B3" t="s">
@@ -4043,24 +3464,24 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>547</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>695</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>733</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>827</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>1162</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>841</v>
       </c>
       <c r="B4" t="s">
@@ -4069,12 +3490,12 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1202</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>207</v>
       </c>
       <c r="B5" t="s">
@@ -4083,41 +3504,41 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>210</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>399</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>839</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>952</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>990</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>721</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>737</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>785</v>
       </c>
       <c r="B7" t="s">
@@ -4126,15 +3547,15 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>886</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>1042</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>997</v>
       </c>
       <c r="B8" t="s">
@@ -4144,75 +3565,78 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>433</v>
       </c>
+      <c r="B9" s="60" t="s">
+        <v>170</v>
+      </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>815</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>863</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>1129</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>1263</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>684</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>685</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1319</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>743</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>787</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>882</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>924</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>1334</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>847</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>864</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>1298</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>332</v>
       </c>
@@ -4220,7 +3644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1192</v>
       </c>
@@ -4228,21 +3652,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>943</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>980</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>996</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>959</v>
       </c>
@@ -4254,54 +3678,57 @@
   <mergeCells count="1">
     <mergeCell ref="D1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="133"/>
-    <hyperlink ref="D2" r:id="rId2" display="138"/>
-    <hyperlink ref="A3" r:id="rId3" display="200"/>
-    <hyperlink ref="D3" r:id="rId4" display="547"/>
-    <hyperlink ref="E3" r:id="rId5" display="695"/>
-    <hyperlink ref="F3" r:id="rId6" display="733"/>
-    <hyperlink ref="G3" r:id="rId7" display="827"/>
-    <hyperlink ref="H3" r:id="rId8" display="1162"/>
-    <hyperlink ref="A4" r:id="rId9" display="841"/>
-    <hyperlink ref="D4" r:id="rId10" display="1202"/>
-    <hyperlink ref="A5" r:id="rId11" display="207"/>
-    <hyperlink ref="D5" r:id="rId12" display="210"/>
-    <hyperlink ref="E5" r:id="rId13" display="802"/>
-    <hyperlink ref="B6" r:id="rId14" display="除法求值"/>
-    <hyperlink ref="A6" r:id="rId15" display="399"/>
-    <hyperlink ref="D6" r:id="rId16" display="839"/>
-    <hyperlink ref="E6" r:id="rId17" display="952"/>
-    <hyperlink ref="F6" r:id="rId18" display="990"/>
-    <hyperlink ref="G6" r:id="rId19" display="721"/>
-    <hyperlink ref="H6" r:id="rId20" display="737"/>
-    <hyperlink ref="A7" r:id="rId21" display="785"/>
-    <hyperlink ref="D7" r:id="rId22" display="886"/>
-    <hyperlink ref="E7" r:id="rId23" display="1042"/>
-    <hyperlink ref="A8" r:id="rId24" display="997"/>
+    <hyperlink ref="A2" r:id="rId1" display="图论\133.克隆图.md" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="138" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" display="图论\200.岛屿数量.md" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" display="547" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E3" r:id="rId5" display="695" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F3" r:id="rId6" display="733" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G3" r:id="rId7" display="827" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H3" r:id="rId8" display="1162" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A4" r:id="rId9" display="图论\841.房间和钥匙.md" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D4" r:id="rId10" display="1202" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A5" r:id="rId11" display="图论\207.课程表.md" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D5" r:id="rId12" display="210" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E5" r:id="rId13" display="802" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B6" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A6" r:id="rId15" display="图论\399.除法求值.md" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D6" r:id="rId16" display="839" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E6" r:id="rId17" display="952" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F6" r:id="rId18" display="990" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G6" r:id="rId19" display="721" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="H6" r:id="rId20" display="737" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A7" r:id="rId21" display="图论/785.判断二分图.md" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D7" r:id="rId22" display="886" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E7" r:id="rId23" display="1042" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A8" r:id="rId24" display="图论/997.找到小镇的法官.md" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A9" r:id="rId25" display="图论\443.最小基因变化.md" xr:uid="{3CB6CF6F-DF09-4328-AFBF-2737600E3A04}"/>
+    <hyperlink ref="D9" r:id="rId26" display="图论\815.公交线路.md" xr:uid="{1A4490DE-FFE2-4A2D-A631-C965A6CB33A2}"/>
+    <hyperlink ref="E9" r:id="rId27" display="图论\863.二叉树中所有距离为 K 的结点.md" xr:uid="{AAE7B6AF-FA15-4860-9413-CEC4683F4628}"/>
+    <hyperlink ref="F9" r:id="rId28" display="图论\1129.颜色交替的最短路径.md" xr:uid="{1782F1F1-FE48-455A-A8A8-4DDEEEDE2C4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="true"/>
-    <col min="2" max="2" width="19" customWidth="true"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4314,20 +3741,20 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
       <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>98</v>
       </c>
       <c r="B2" t="s">
@@ -4336,15 +3763,15 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>530</v>
       </c>
       <c r="M2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>700</v>
       </c>
       <c r="B3" t="s">
@@ -4353,15 +3780,15 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>701</v>
       </c>
       <c r="M3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>230</v>
       </c>
       <c r="B4" t="s">
@@ -4374,8 +3801,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>99</v>
       </c>
       <c r="B5" t="s">
@@ -4388,8 +3815,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>108</v>
       </c>
       <c r="B6" t="s">
@@ -4402,8 +3829,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>501</v>
       </c>
       <c r="B7" t="s">
@@ -4416,8 +3843,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>450</v>
       </c>
       <c r="B8" t="s">
@@ -4434,46 +3861,45 @@
   <mergeCells count="1">
     <mergeCell ref="E1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Validate Binary Search Tree"/>
-    <hyperlink ref="D2" r:id="rId2" display="530"/>
-    <hyperlink ref="B3" r:id="rId3" display="Search in a Binary Search Tree"/>
-    <hyperlink ref="D3" r:id="rId4" display="701"/>
-    <hyperlink ref="B4" r:id="rId5" display="Kth Smallest Element in a BST"/>
-    <hyperlink ref="B5" r:id="rId6" display="Recover Binary Search Tree"/>
-    <hyperlink ref="B6" r:id="rId7" display="Convert Sorted Array to Binary Search Tree"/>
-    <hyperlink ref="B7" r:id="rId8" display="Find Mode in Binary Search Tree"/>
-    <hyperlink ref="B8" r:id="rId9" display="Delete Node in a BST"/>
-    <hyperlink ref="A2" r:id="rId10" display="98"/>
-    <hyperlink ref="A3" r:id="rId11" display="700"/>
-    <hyperlink ref="A4" r:id="rId12" display="230"/>
-    <hyperlink ref="A5" r:id="rId13" display="99"/>
-    <hyperlink ref="A6" r:id="rId14" display="108"/>
-    <hyperlink ref="A7" r:id="rId15" display="501"/>
-    <hyperlink ref="A8" r:id="rId16" display="450"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="530" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" display="701" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A2" r:id="rId10" display="98" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A3" r:id="rId11" display="700" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="A4" r:id="rId12" display="230" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A5" r:id="rId13" display="99" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="A6" r:id="rId14" display="108" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A7" r:id="rId15" display="501" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A8" r:id="rId16" display="450" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="true"/>
-    <col min="2" max="2" width="15.5" customWidth="true"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4483,112 +3909,112 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
       <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>206</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>141</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>147</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>148</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>707</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C9" t="s">
@@ -4599,48 +4025,47 @@
   <mergeCells count="1">
     <mergeCell ref="D1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="两数相加"/>
-    <hyperlink ref="B3" r:id="rId2" display="两两交换链表中的节点"/>
-    <hyperlink ref="B4" r:id="rId3" display="反转链表"/>
-    <hyperlink ref="B5" r:id="rId4" display="环形链表"/>
-    <hyperlink ref="B6" r:id="rId5" display="合并K个升序链表"/>
-    <hyperlink ref="B7" r:id="rId6" display="对链表进行插入排序"/>
-    <hyperlink ref="B8" r:id="rId7" display="排序链表"/>
-    <hyperlink ref="B9" r:id="rId8" display="设计链表"/>
-    <hyperlink ref="A2" r:id="rId9" display="2"/>
-    <hyperlink ref="A3" r:id="rId10" display="24"/>
-    <hyperlink ref="A4" r:id="rId11" display="206"/>
-    <hyperlink ref="A5" r:id="rId12" display="141"/>
-    <hyperlink ref="D5" r:id="rId13" display="142"/>
-    <hyperlink ref="A6" r:id="rId14" display="23"/>
-    <hyperlink ref="D6" r:id="rId15" display="21"/>
-    <hyperlink ref="A7" r:id="rId16" display="147"/>
-    <hyperlink ref="A8" r:id="rId17" display="148"/>
-    <hyperlink ref="A9" r:id="rId18" display="707"/>
-    <hyperlink ref="D2" r:id="rId19" display="445"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="A2" r:id="rId9" display="2" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="A3" r:id="rId10" display="24" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="A4" r:id="rId11" display="206" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="A5" r:id="rId12" display="141" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="D5" r:id="rId13" display="142" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="A6" r:id="rId14" display="23" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="D6" r:id="rId15" display="21" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="A7" r:id="rId16" display="147" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="A8" r:id="rId17" display="148" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="A9" r:id="rId18" display="707" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="D2" r:id="rId19" display="445" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.25" customWidth="true"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4650,23 +4075,23 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
       <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>169</v>
       </c>
       <c r="B2" t="s">
@@ -4676,8 +4101,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>153</v>
       </c>
       <c r="B3" t="s">
@@ -4686,12 +4111,12 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>912</v>
       </c>
       <c r="B4" t="s">
@@ -4701,11 +4126,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>315</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C5" t="s">
@@ -4716,34 +4141,33 @@
   <mergeCells count="1">
     <mergeCell ref="D1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="169"/>
-    <hyperlink ref="A3" r:id="rId2" display="153"/>
-    <hyperlink ref="A4" r:id="rId3" display="912"/>
-    <hyperlink ref="D3" r:id="rId4" display="154"/>
-    <hyperlink ref="A5" r:id="rId5" display="315"/>
+    <hyperlink ref="A2" r:id="rId1" display="169" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="153" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="912" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" display="154" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" display="315" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.75" customWidth="true"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4753,58 +4177,58 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
       <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>94</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>144</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>145</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>590</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>429</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>589</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>590</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>987</v>
       </c>
       <c r="K2">
         <v>1302</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>100</v>
       </c>
       <c r="B3" t="s">
@@ -4813,26 +4237,26 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>101</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>104</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>110</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>111</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>572</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>965</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -4842,18 +4266,18 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>107</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>429</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>872</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>814</v>
       </c>
       <c r="B5" t="s">
@@ -4862,15 +4286,15 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>669</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1325</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>112</v>
       </c>
       <c r="B6" t="s">
@@ -4879,29 +4303,29 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>113</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>129</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>236</v>
       </c>
       <c r="B8" t="s">
@@ -4910,51 +4334,51 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>297</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="32" t="s">
         <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>508</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>124</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>543</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>968</v>
       </c>
       <c r="B12" t="s">
@@ -4963,10 +4387,10 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>337</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>979</v>
       </c>
     </row>
@@ -4974,49 +4398,49 @@
   <mergeCells count="1">
     <mergeCell ref="D1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="二叉树的中序遍历"/>
-    <hyperlink ref="A2" r:id="rId2" display="94"/>
-    <hyperlink ref="D2" r:id="rId3" display="144"/>
-    <hyperlink ref="E2" r:id="rId4" display="145"/>
-    <hyperlink ref="F2" r:id="rId4" display="590"/>
-    <hyperlink ref="G2" r:id="rId5" display="429"/>
-    <hyperlink ref="H2" r:id="rId6" display="589"/>
-    <hyperlink ref="I2" r:id="rId7" display="590"/>
-    <hyperlink ref="J2" r:id="rId8" display="987"/>
-    <hyperlink ref="A3" r:id="rId9" display="100"/>
-    <hyperlink ref="D3" r:id="rId10" display="101"/>
-    <hyperlink ref="E3" r:id="rId11" display="104"/>
-    <hyperlink ref="F3" r:id="rId12" display="110"/>
-    <hyperlink ref="G3" r:id="rId13" display="111"/>
-    <hyperlink ref="H3" r:id="rId14" display="572"/>
-    <hyperlink ref="I3" r:id="rId15" display="965"/>
-    <hyperlink ref="D4" r:id="rId16" display="107"/>
-    <hyperlink ref="E4" r:id="rId5" display="429"/>
-    <hyperlink ref="F4" r:id="rId17" display="872"/>
-    <hyperlink ref="A5" r:id="rId18" display="814"/>
-    <hyperlink ref="D5" r:id="rId19" display="669"/>
-    <hyperlink ref="E5" r:id="rId20" display="1325"/>
-    <hyperlink ref="A6" r:id="rId21" display="112"/>
-    <hyperlink ref="D6" r:id="rId22" display="113"/>
-    <hyperlink ref="E6" r:id="rId23" display="437"/>
-    <hyperlink ref="B7" r:id="rId24" display="求根节点到叶节点数字之和"/>
-    <hyperlink ref="A7" r:id="rId25" display="129"/>
-    <hyperlink ref="D7" r:id="rId26" display="257"/>
-    <hyperlink ref="A8" r:id="rId27" display="236"/>
-    <hyperlink ref="D8" r:id="rId27" display="235"/>
-    <hyperlink ref="B10" r:id="rId28" display="出现次数最多的子树元素和"/>
-    <hyperlink ref="A11" r:id="rId29" display="124"/>
-    <hyperlink ref="B11" r:id="rId30" display="二叉树中的最大路径和"/>
-    <hyperlink ref="D11" r:id="rId31" display="543"/>
-    <hyperlink ref="E11" r:id="rId32" display="687"/>
-    <hyperlink ref="A12" r:id="rId33" display="968"/>
-    <hyperlink ref="A10" r:id="rId34" display="508"/>
-    <hyperlink ref="D12" r:id="rId35" display="337"/>
-    <hyperlink ref="E12" r:id="rId36" display="979"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="94" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" display="144" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId4" display="145" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="F2" r:id="rId5" display="590" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="G2" r:id="rId6" display="429" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="H2" r:id="rId7" display="589" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="I2" r:id="rId8" display="590" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="J2" r:id="rId9" display="987" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="A3" r:id="rId10" display="100" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="D3" r:id="rId11" display="101" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="E3" r:id="rId12" display="104" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="F3" r:id="rId13" display="110" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="G3" r:id="rId14" display="111" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="H3" r:id="rId15" display="572" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="I3" r:id="rId16" display="965" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="D4" r:id="rId17" display="107" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="E4" r:id="rId18" display="429" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="F4" r:id="rId19" display="872" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="A5" r:id="rId20" display="814" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="D5" r:id="rId21" display="669" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="E5" r:id="rId22" display="1325" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="A6" r:id="rId23" display="112" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="D6" r:id="rId24" display="113" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="E6" r:id="rId25" display="437" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="B7" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="A7" r:id="rId27" display="129" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="D7" r:id="rId28" display="257" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="A8" r:id="rId29" display="236" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="D8" r:id="rId30" display="235" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="B10" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="A11" r:id="rId32" display="124" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="B11" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="D11" r:id="rId34" display="543" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="E11" r:id="rId35" display="687" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="A12" r:id="rId36" display="968" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="A10" r:id="rId37" display="508" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="D12" r:id="rId38" display="337" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="E12" r:id="rId39" display="979" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356A5441-8F87-45BA-A360-9CD139A6DCEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87992A54-A531-4CF4-851A-FE6B46FF72B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="3450" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="3090" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="175">
   <si>
     <t>Graph（图论）</t>
   </si>
@@ -539,6 +539,21 @@
   <si>
     <t>最小基因变化</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余连接</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络延迟时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新安排行程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找集群内的「关键连接」</t>
   </si>
 </sst>
 </file>
@@ -920,6 +935,7 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -941,6 +957,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -953,30 +993,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
@@ -1001,7 +1017,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1320,13 +1335,13 @@
       <c r="C5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="16" t="s">
         <v>5</v>
       </c>
@@ -1707,15 +1722,15 @@
       <c r="C26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="16" t="s">
         <v>5</v>
       </c>
@@ -1967,15 +1982,15 @@
       <c r="C40" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="16" t="s">
         <v>5</v>
       </c>
@@ -2199,15 +2214,15 @@
       <c r="C54" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="36"/>
       <c r="K54" s="28" t="s">
         <v>5</v>
       </c>
@@ -2372,14 +2387,14 @@
       <c r="C66" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="36"/>
       <c r="J66" s="16" t="s">
         <v>5</v>
       </c>
@@ -2509,13 +2524,13 @@
       <c r="C76" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="16" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2554,7 @@
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
-      <c r="I77" s="56" t="s">
+      <c r="I77" s="57" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2560,7 +2575,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
-      <c r="I78" s="57"/>
+      <c r="I78" s="58"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
@@ -2579,16 +2594,16 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
-      <c r="I79" s="58"/>
+      <c r="I79" s="59"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="36">
+      <c r="A80" s="37">
         <v>62</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="19">
@@ -2606,14 +2621,14 @@
       <c r="H80" s="21">
         <v>931</v>
       </c>
-      <c r="I80" s="56" t="s">
+      <c r="I80" s="57" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="45"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="21">
         <v>1210</v>
       </c>
@@ -2621,7 +2636,7 @@
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
-      <c r="I81" s="57"/>
+      <c r="I81" s="58"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
@@ -2644,7 +2659,7 @@
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
-      <c r="I82" s="58"/>
+      <c r="I82" s="59"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
@@ -2713,7 +2728,7 @@
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
-      <c r="I85" s="56" t="s">
+      <c r="I85" s="57" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2736,7 +2751,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
-      <c r="I86" s="57"/>
+      <c r="I86" s="58"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
@@ -2753,7 +2768,7 @@
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
-      <c r="I87" s="58"/>
+      <c r="I87" s="59"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
@@ -2796,13 +2811,13 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="36">
+      <c r="A90" s="37">
         <v>72</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="21">
@@ -2820,14 +2835,14 @@
       <c r="H90" s="19">
         <v>583</v>
       </c>
-      <c r="I90" s="56" t="s">
+      <c r="I90" s="57" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="45"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="42"/>
       <c r="D91" s="19">
         <v>712</v>
       </c>
@@ -2843,84 +2858,84 @@
       <c r="H91" s="19">
         <v>718</v>
       </c>
-      <c r="I91" s="58"/>
+      <c r="I91" s="59"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="38">
+      <c r="A92" s="39">
         <v>1139</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
+      <c r="C92" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
       <c r="I92" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="39"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
       <c r="I93" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="38">
+      <c r="A94" s="39">
         <v>688</v>
       </c>
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C94" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="50">
+      <c r="C94" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="47">
         <v>576</v>
       </c>
-      <c r="E94" s="50">
+      <c r="E94" s="47">
         <v>935</v>
       </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
       <c r="I94" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="39"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
       <c r="I95" s="31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="36">
+      <c r="A96" s="37">
         <v>322</v>
       </c>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="19">
@@ -2938,14 +2953,14 @@
       <c r="H96" s="19">
         <v>1049</v>
       </c>
-      <c r="I96" s="56" t="s">
+      <c r="I96" s="57" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="45"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="42"/>
       <c r="D97" s="19">
         <v>1220</v>
       </c>
@@ -2959,74 +2974,74 @@
         <v>1269</v>
       </c>
       <c r="H97" s="15"/>
-      <c r="I97" s="58"/>
+      <c r="I97" s="59"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="38">
+      <c r="A98" s="39">
         <v>813</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="46" t="s">
+      <c r="C98" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="53">
         <v>1278</v>
       </c>
-      <c r="E98" s="52">
+      <c r="E98" s="53">
         <v>1335</v>
       </c>
-      <c r="F98" s="52">
+      <c r="F98" s="53">
         <v>410</v>
       </c>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
       <c r="I98" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="39"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
       <c r="I99" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="38">
+      <c r="A100" s="39">
         <v>1223</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="46" t="s">
+      <c r="C100" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
       <c r="I100" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="39"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
       <c r="I101" s="31" t="s">
         <v>121</v>
       </c>
@@ -3099,39 +3114,39 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="38">
+      <c r="A105" s="39">
         <v>943</v>
       </c>
-      <c r="B105" s="42" t="s">
+      <c r="B105" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="46" t="s">
+      <c r="C105" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="52">
+      <c r="D105" s="53">
         <v>980</v>
       </c>
-      <c r="E105" s="52">
+      <c r="E105" s="53">
         <v>996</v>
       </c>
-      <c r="F105" s="52">
+      <c r="F105" s="53">
         <v>1125</v>
       </c>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
       <c r="I105" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="39"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="47"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
       <c r="I106" s="31" t="s">
         <v>129</v>
       </c>
@@ -3414,7 +3429,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3432,13 +3447,13 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
@@ -3569,7 +3584,7 @@
       <c r="A9" s="4">
         <v>433</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="33" t="s">
         <v>170</v>
       </c>
       <c r="C9" t="s">
@@ -3584,32 +3599,38 @@
       <c r="F9" s="9">
         <v>1129</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9">
         <v>1263</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>684</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>685</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>1319</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>743</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>787</v>
       </c>
       <c r="E11" s="7">
@@ -3618,7 +3639,7 @@
       <c r="F11" s="7">
         <v>924</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="9">
         <v>1334</v>
       </c>
     </row>
@@ -3637,16 +3658,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>332</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>1192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -3700,7 +3727,7 @@
     <hyperlink ref="F6" r:id="rId18" display="990" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="G6" r:id="rId19" display="721" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="H6" r:id="rId20" display="737" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="A7" r:id="rId21" display="图论/785.判断二分图.md" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A7" r:id="rId21" display="图论\785.判断二分图.md" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
     <hyperlink ref="D7" r:id="rId22" display="886" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
     <hyperlink ref="E7" r:id="rId23" display="1042" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
     <hyperlink ref="A8" r:id="rId24" display="图论/997.找到小镇的法官.md" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
@@ -3708,9 +3735,17 @@
     <hyperlink ref="D9" r:id="rId26" display="图论\815.公交线路.md" xr:uid="{1A4490DE-FFE2-4A2D-A631-C965A6CB33A2}"/>
     <hyperlink ref="E9" r:id="rId27" display="图论\863.二叉树中所有距离为 K 的结点.md" xr:uid="{AAE7B6AF-FA15-4860-9413-CEC4683F4628}"/>
     <hyperlink ref="F9" r:id="rId28" display="图论\1129.颜色交替的最短路径.md" xr:uid="{1782F1F1-FE48-455A-A8A8-4DDEEEDE2C4C}"/>
+    <hyperlink ref="A10" r:id="rId29" display="图论\684.冗余连接.md" xr:uid="{89F22237-9268-480F-9FCC-CD2A0D05D9D8}"/>
+    <hyperlink ref="D10" r:id="rId30" display="图论\685.冗余连接II.md" xr:uid="{04105594-07EB-40CE-A665-BAA04610D124}"/>
+    <hyperlink ref="E10" r:id="rId31" display="图论\1319.连通网络的操作次数.md" xr:uid="{88C60FCB-A98F-4DFE-91AE-16241DC7BC61}"/>
+    <hyperlink ref="A11" r:id="rId32" display="图论\743.网络延迟时间.md" xr:uid="{0D6F2FDC-1C6D-4082-9930-D4C235746BC6}"/>
+    <hyperlink ref="D11" r:id="rId33" display="图论\787.K 站中转内最便宜的航班.md" xr:uid="{1E732563-57A9-42C5-AB5F-0A6C0D757636}"/>
+    <hyperlink ref="A13" r:id="rId34" display="图论\332.重新安排行程.md" xr:uid="{658DD99C-5412-4429-8AD3-6550C448D721}"/>
+    <hyperlink ref="A14" r:id="rId35" display="图论\1192.查找集群内的「关键连接」.md" xr:uid="{4D11FDBA-57AF-4BFF-BA80-9DA65182CC2E}"/>
+    <hyperlink ref="G11" r:id="rId36" display="图论\1334.阈值距离内邻居最少的城市.md" xr:uid="{EFB116E3-164B-41DE-8159-2D8AFA2A3B58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -3741,14 +3776,14 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" t="s">
         <v>5</v>
       </c>
@@ -3909,17 +3944,17 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" t="s">
         <v>5</v>
       </c>
@@ -4075,17 +4110,17 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" t="s">
         <v>5</v>
       </c>
@@ -4177,17 +4212,17 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" t="s">
         <v>5</v>
       </c>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD752A-89CF-4EA8-A178-969124434A06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6388BD78-C763-4864-876C-722C9A2EDF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="0" windowWidth="19420" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -463,6 +463,17 @@
   <si>
     <t>单词搜索</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词接龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01矩阵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>划分为k个相等的子集</t>
   </si>
 </sst>
 </file>
@@ -546,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +585,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,83 +874,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,7 +1238,7 @@
   <dimension ref="A3:K116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,15 +1279,15 @@
       <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="28" t="s">
         <v>4</v>
       </c>
@@ -1434,14 +1452,14 @@
       <c r="C18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="16" t="s">
         <v>4</v>
       </c>
@@ -1571,13 +1589,13 @@
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="16" t="s">
         <v>4</v>
       </c>
@@ -1601,7 +1619,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1622,7 +1640,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -1641,16 +1659,16 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55">
+      <c r="A32" s="52">
         <v>62</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="19">
@@ -1668,14 +1686,14 @@
       <c r="H32" s="21">
         <v>931</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="48"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="21">
         <v>1210</v>
       </c>
@@ -1683,7 +1701,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
@@ -1706,7 +1724,7 @@
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -1775,7 +1793,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1798,7 +1816,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="44"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
@@ -1815,7 +1833,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="36"/>
+      <c r="I39" s="45"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
@@ -1858,13 +1876,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55">
+      <c r="A42" s="52">
         <v>72</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="21">
@@ -1882,14 +1900,14 @@
       <c r="H42" s="19">
         <v>583</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="43" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="19">
         <v>712</v>
       </c>
@@ -1905,84 +1923,84 @@
       <c r="H43" s="19">
         <v>718</v>
       </c>
-      <c r="I43" s="36"/>
+      <c r="I43" s="45"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="49">
+      <c r="A44" s="46">
         <v>1139</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="C44" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
       <c r="I44" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
       <c r="I45" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="49">
+      <c r="A46" s="46">
         <v>688</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="41">
+      <c r="C46" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="56">
         <v>576</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="56">
         <v>935</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
       <c r="I46" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
       <c r="I47" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="55">
+      <c r="A48" s="52">
         <v>322</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="19">
@@ -2000,14 +2018,14 @@
       <c r="H48" s="19">
         <v>1049</v>
       </c>
-      <c r="I48" s="35" t="s">
+      <c r="I48" s="43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="48"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="19">
         <v>1220</v>
       </c>
@@ -2021,74 +2039,74 @@
         <v>1269</v>
       </c>
       <c r="H49" s="15"/>
-      <c r="I49" s="36"/>
+      <c r="I49" s="45"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="49">
+      <c r="A50" s="46">
         <v>813</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="58">
         <v>1278</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="58">
         <v>1335</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="58">
         <v>410</v>
       </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
       <c r="I50" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
       <c r="I51" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="49">
+      <c r="A52" s="46">
         <v>1223</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
       <c r="I53" s="31" t="s">
         <v>74</v>
       </c>
@@ -2161,39 +2179,39 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="49">
+      <c r="A57" s="46">
         <v>943</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="58">
         <v>980</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="58">
         <v>996</v>
       </c>
-      <c r="F57" s="39">
+      <c r="F57" s="58">
         <v>1125</v>
       </c>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
       <c r="I57" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
       <c r="I58" s="31" t="s">
         <v>82</v>
       </c>
@@ -2205,17 +2223,36 @@
     <row r="116" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A57:A58"/>
@@ -2232,36 +2269,17 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I42:I43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -2377,7 +2395,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2537,19 +2555,22 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>127</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="35">
         <v>126</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <v>752</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>818</v>
       </c>
       <c r="G7" s="7"/>
@@ -2561,8 +2582,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>542</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -2570,7 +2594,7 @@
       <c r="D8" s="7">
         <v>675</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>934</v>
       </c>
       <c r="F8" s="7"/>
@@ -2585,6 +2609,9 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>698</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -2647,9 +2674,15 @@
     <hyperlink ref="E5" r:id="rId14" display="DFS&amp;BFS\51.N皇后II.md" xr:uid="{EC20D465-792B-4252-AD1A-D27DFE3A4E99}"/>
     <hyperlink ref="A6" r:id="rId15" display="DFS&amp;BFS\79.单词搜索.md" xr:uid="{5B89E231-2550-488F-8270-65B6DD90CA3D}"/>
     <hyperlink ref="D6" r:id="rId16" display="DFS&amp;BFS\212.单词搜索II.md" xr:uid="{C5B571E8-3CC1-40CE-B949-6F8FD36D7188}"/>
+    <hyperlink ref="A7" r:id="rId17" display="DFS&amp;BFS\127.单词接龙.md" xr:uid="{4641A367-1754-46E5-9B43-8BC1A9808F72}"/>
+    <hyperlink ref="E7" r:id="rId18" display="DFS&amp;BFS\752.打开转盘锁.md" xr:uid="{2803E49E-3984-4AD7-9785-3411FCF13E57}"/>
+    <hyperlink ref="F7" r:id="rId19" display="DFS&amp;BFS\818.赛车.md" xr:uid="{3539FBE1-0550-4875-8ACE-A041849C20DD}"/>
+    <hyperlink ref="A8" r:id="rId20" display="DFS&amp;BFS\542.01矩阵.md" xr:uid="{AB5F8A04-426A-406C-942C-C558FE36CD3A}"/>
+    <hyperlink ref="E8" r:id="rId21" display="DFS&amp;BFS\934.最短的桥.md" xr:uid="{A5E90B91-7278-4CE1-A408-41B8CFE84E60}"/>
+    <hyperlink ref="B9" r:id="rId22" display="https://leetcode-cn.com/problems/partition-to-k-equal-sum-subsets/" xr:uid="{AF1C6BB3-B033-498F-B1C5-A487787946FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -2676,15 +2709,15 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
       <c r="K1" t="s">
         <v>4</v>
       </c>
@@ -2890,13 +2923,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
@@ -3219,14 +3252,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="M1" t="s">
         <v>4</v>
       </c>
@@ -3387,17 +3420,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="M1" t="s">
         <v>4</v>
       </c>
@@ -3553,17 +3586,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="M1" t="s">
         <v>4</v>
       </c>
@@ -3655,17 +3688,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="M1" t="s">
         <v>4</v>
       </c>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,26 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6388BD78-C763-4864-876C-722C9A2EDF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6DF4F0-5A5B-4FDC-BC86-B270FEEF6514}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
-    <sheet name="BFS|DFS" sheetId="8" r:id="rId2"/>
-    <sheet name="二分搜索" sheetId="7" r:id="rId3"/>
-    <sheet name="图" sheetId="6" r:id="rId4"/>
-    <sheet name="BST" sheetId="5" r:id="rId5"/>
-    <sheet name="链表" sheetId="4" r:id="rId6"/>
-    <sheet name="分治算法" sheetId="3" r:id="rId7"/>
-    <sheet name="树" sheetId="2" r:id="rId8"/>
+    <sheet name="TIME" sheetId="10" r:id="rId2"/>
+    <sheet name="双指针" sheetId="9" r:id="rId3"/>
+    <sheet name="BFS|DFS" sheetId="8" r:id="rId4"/>
+    <sheet name="二分搜索" sheetId="7" r:id="rId5"/>
+    <sheet name="图" sheetId="6" r:id="rId6"/>
+    <sheet name="BST" sheetId="5" r:id="rId7"/>
+    <sheet name="链表" sheetId="4" r:id="rId8"/>
+    <sheet name="分治算法" sheetId="3" r:id="rId9"/>
+    <sheet name="树" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
   <si>
     <t>Id</t>
   </si>
@@ -474,6 +487,46 @@
   </si>
   <si>
     <t>划分为k个相等的子集</t>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>总小时</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分钟</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文代码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaldi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -557,7 +610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,15 +901,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -876,16 +926,70 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -896,69 +1000,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1235,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:K116"/>
+  <dimension ref="A3:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L13" sqref="A5:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1248,186 +1301,20 @@
     <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>11</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="21">
-        <v>42</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>125</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="24">
-        <v>455</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>917</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="25">
-        <v>925</v>
-      </c>
-      <c r="E9" s="25">
-        <v>986</v>
-      </c>
-      <c r="F9" s="25">
-        <v>855</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>167</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="25">
-        <v>15</v>
-      </c>
-      <c r="E10" s="25">
-        <v>16</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>977</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>992</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1452,14 +1339,14 @@
       <c r="C18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="16" t="s">
         <v>4</v>
       </c>
@@ -1477,13 +1364,13 @@
       <c r="D19" s="19">
         <v>648</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="26">
         <v>676</v>
       </c>
       <c r="F19" s="19">
         <v>677</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="24">
         <v>720</v>
       </c>
       <c r="H19" s="21">
@@ -1534,7 +1421,7 @@
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="26"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="15"/>
       <c r="J21" s="16" t="s">
         <v>35</v>
@@ -1589,13 +1476,13 @@
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="16" t="s">
         <v>4</v>
       </c>
@@ -1610,16 +1497,16 @@
       <c r="C29" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="24">
         <v>746</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="24">
         <v>1137</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1640,7 +1527,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="44"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -1652,23 +1539,23 @@
       <c r="C31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="24">
         <v>121</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="45"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52">
+      <c r="A32" s="53">
         <v>62</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="19">
@@ -1686,14 +1573,14 @@
       <c r="H32" s="21">
         <v>931</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="21">
         <v>1210</v>
       </c>
@@ -1701,7 +1588,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="44"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
@@ -1716,7 +1603,7 @@
       <c r="D34" s="19">
         <v>221</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="24">
         <v>304</v>
       </c>
       <c r="F34" s="19">
@@ -1724,7 +1611,7 @@
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="45"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -1793,7 +1680,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1816,7 +1703,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="44"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
@@ -1833,7 +1720,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="45"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
@@ -1850,7 +1737,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1871,18 +1758,18 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52">
+      <c r="A42" s="53">
         <v>72</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="21">
@@ -1900,14 +1787,14 @@
       <c r="H42" s="19">
         <v>583</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="37"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="19">
         <v>712</v>
       </c>
@@ -1923,84 +1810,84 @@
       <c r="H43" s="19">
         <v>718</v>
       </c>
-      <c r="I43" s="45"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="46">
+      <c r="A44" s="47">
         <v>1139</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="30" t="s">
+      <c r="C44" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="31" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="46">
+      <c r="A46" s="47">
         <v>688</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="56">
+      <c r="C46" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="39">
         <v>576</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E46" s="39">
         <v>935</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="30" t="s">
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="31" t="s">
+      <c r="A47" s="48"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52">
+      <c r="A48" s="53">
         <v>322</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="19">
@@ -2018,14 +1905,14 @@
       <c r="H48" s="19">
         <v>1049</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="37"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="19">
         <v>1220</v>
       </c>
@@ -2039,75 +1926,75 @@
         <v>1269</v>
       </c>
       <c r="H49" s="15"/>
-      <c r="I49" s="45"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="46">
+      <c r="A50" s="47">
         <v>813</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="58">
+      <c r="D50" s="37">
         <v>1278</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="37">
         <v>1335</v>
       </c>
-      <c r="F50" s="58">
+      <c r="F50" s="37">
         <v>410</v>
       </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="30" t="s">
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="31" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="46">
+      <c r="A52" s="47">
         <v>1223</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="30" t="s">
+      <c r="D52" s="43"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="27" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="31" t="s">
+      <c r="A53" s="48"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2136,7 +2023,7 @@
       <c r="H54" s="19">
         <v>1130</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="I54" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2155,7 +2042,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="28" t="s">
+      <c r="I55" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2174,45 +2061,45 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
-      <c r="I56" s="28" t="s">
+      <c r="I56" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="46">
+      <c r="A57" s="47">
         <v>943</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="58">
+      <c r="D57" s="37">
         <v>980</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="37">
         <v>996</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="37">
         <v>1125</v>
       </c>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="30" t="s">
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="31" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="28" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2222,37 +2109,17 @@
     <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C48:C49"/>
+  <mergeCells count="56">
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I42:I43"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A57:A58"/>
@@ -2269,1408 +2136,139 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D7" r:id="rId2" display="42" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D8" r:id="rId4" display="455" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D9" r:id="rId6" display="925" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E9" r:id="rId7" display="986" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F9" r:id="rId8" display="855" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D10" r:id="rId10" display="15" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E10" r:id="rId11" display="16" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D19" r:id="rId15" display="648" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E19" r:id="rId16" display="676" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="F19" r:id="rId17" display="677" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="G19" r:id="rId18" display="720" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H19" r:id="rId19" display="745" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D21" r:id="rId22" display="907" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E21" r:id="rId23" display="1019" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B22" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D29" r:id="rId26" display="746" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E29" r:id="rId27" display="1137" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" display="1218" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D31" r:id="rId31" display="121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D32" r:id="rId33" display="63" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E32" r:id="rId34" display="64" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="F32" r:id="rId35" display="120" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G32" r:id="rId36" display="174" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="H32" r:id="rId37" display="931" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D33" r:id="rId38" display="1210" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B34" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D34" r:id="rId40" display="221" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E34" r:id="rId41" display="304" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="F34" r:id="rId42" display="1277" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B35" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D35" r:id="rId44" display="213" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E35" r:id="rId45" display="309" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="F35" r:id="rId46" display="740" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="G35" r:id="rId47" display="790" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="H35" r:id="rId48" display="801" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B36" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B37" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D37" r:id="rId51" display="140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E37" r:id="rId52" display="818" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B38" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D38" r:id="rId54" display="673" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E38" r:id="rId55" display="1048" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B39" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B41" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D41" r:id="rId59" display="89" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B42" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D42" r:id="rId61" display="10" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E42" r:id="rId62" display="44" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="F42" r:id="rId63" display="97" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="G42" r:id="rId64" display="115" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="H42" r:id="rId65" display="583" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D43" r:id="rId66" display="712" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E43" r:id="rId67" display="1187" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="F43" r:id="rId68" display="1143" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G43" r:id="rId69" display="1092" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="H43" r:id="rId70" display="718" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B44" r:id="rId71" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B46" r:id="rId72" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D46" r:id="rId73" display="576" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E46" r:id="rId74" display="935" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B48" r:id="rId75" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D48" r:id="rId76" display="377" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E48" r:id="rId77" display="416" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="F48" r:id="rId78" display="494" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="G48" r:id="rId79" display="1043" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="H48" r:id="rId80" display="1049" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D49" r:id="rId81" display="1220" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E49" r:id="rId82" display="1230" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="F49" r:id="rId83" display="1262" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G49" r:id="rId84" display="1269" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B50" r:id="rId85" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D50" r:id="rId86" display="1278" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E50" r:id="rId87" display="1335" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="F50" r:id="rId88" display="410" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B52" r:id="rId89" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B54" r:id="rId90" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D54" r:id="rId91" display="664" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E54" r:id="rId92" display="1024" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="F54" r:id="rId93" display="1039" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G54" r:id="rId94" display="1140" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="H54" r:id="rId95" display="1130" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B55" r:id="rId96" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B56" r:id="rId97" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B57" r:id="rId98" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D57" r:id="rId99" display="980" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E57" r:id="rId100" display="996" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="F57" r:id="rId101" display="1125" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D19" r:id="rId2" display="648" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E19" r:id="rId3" display="676" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F19" r:id="rId4" display="677" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G19" r:id="rId5" display="720" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H19" r:id="rId6" display="745" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D21" r:id="rId9" display="907" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E21" r:id="rId10" display="1019" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D29" r:id="rId13" display="746" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E29" r:id="rId14" display="1137" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D30" r:id="rId16" display="1218" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D31" r:id="rId18" display="121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D32" r:id="rId20" display="63" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E32" r:id="rId21" display="64" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F32" r:id="rId22" display="120" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G32" r:id="rId23" display="174" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H32" r:id="rId24" display="931" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D33" r:id="rId25" display="1210" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D34" r:id="rId27" display="221" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E34" r:id="rId28" display="304" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F34" r:id="rId29" display="1277" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D35" r:id="rId31" display="213" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E35" r:id="rId32" display="309" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F35" r:id="rId33" display="740" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G35" r:id="rId34" display="790" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="H35" r:id="rId35" display="801" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D37" r:id="rId38" display="140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E37" r:id="rId39" display="818" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B38" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D38" r:id="rId41" display="673" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E38" r:id="rId42" display="1048" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B39" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B40" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B41" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D41" r:id="rId46" display="89" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B42" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D42" r:id="rId48" display="10" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E42" r:id="rId49" display="44" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="F42" r:id="rId50" display="97" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="G42" r:id="rId51" display="115" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="H42" r:id="rId52" display="583" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D43" r:id="rId53" display="712" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E43" r:id="rId54" display="1187" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="F43" r:id="rId55" display="1143" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G43" r:id="rId56" display="1092" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="H43" r:id="rId57" display="718" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B44" r:id="rId58" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B46" r:id="rId59" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D46" r:id="rId60" display="576" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E46" r:id="rId61" display="935" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B48" r:id="rId62" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D48" r:id="rId63" display="377" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E48" r:id="rId64" display="416" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F48" r:id="rId65" display="494" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="G48" r:id="rId66" display="1043" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="H48" r:id="rId67" display="1049" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D49" r:id="rId68" display="1220" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E49" r:id="rId69" display="1230" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="F49" r:id="rId70" display="1262" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G49" r:id="rId71" display="1269" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B50" r:id="rId72" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D50" r:id="rId73" display="1278" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E50" r:id="rId74" display="1335" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="F50" r:id="rId75" display="410" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B52" r:id="rId76" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B54" r:id="rId77" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D54" r:id="rId78" display="664" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E54" r:id="rId79" display="1024" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="F54" r:id="rId80" display="1039" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G54" r:id="rId81" display="1140" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="H54" r:id="rId82" display="1130" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B55" r:id="rId83" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B56" r:id="rId84" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B57" r:id="rId85" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D57" r:id="rId86" display="980" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E57" r:id="rId87" display="996" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="F57" r:id="rId88" display="1125" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21EA0AA-7FC5-4469-8724-8CD0BEA99AB2}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>40</v>
-      </c>
-      <c r="F2" s="9">
-        <v>77</v>
-      </c>
-      <c r="G2" s="9">
-        <v>78</v>
-      </c>
-      <c r="H2" s="9">
-        <v>90</v>
-      </c>
-      <c r="I2" s="9">
-        <v>216</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>46</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9">
-        <v>47</v>
-      </c>
-      <c r="E3" s="9">
-        <v>784</v>
-      </c>
-      <c r="F3" s="7">
-        <v>943</v>
-      </c>
-      <c r="G3" s="9">
-        <v>996</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>22</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9">
-        <v>301</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>37</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9">
-        <v>51</v>
-      </c>
-      <c r="E5" s="9">
-        <v>52</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>79</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9">
-        <v>212</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>127</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="35">
-        <v>126</v>
-      </c>
-      <c r="E7" s="9">
-        <v>752</v>
-      </c>
-      <c r="F7" s="9">
-        <v>818</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>542</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>675</v>
-      </c>
-      <c r="E8" s="9">
-        <v>934</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>698</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7">
-        <v>93</v>
-      </c>
-      <c r="E9" s="7">
-        <v>131</v>
-      </c>
-      <c r="F9" s="7">
-        <v>241</v>
-      </c>
-      <c r="G9" s="7">
-        <v>282</v>
-      </c>
-      <c r="H9" s="7">
-        <v>842</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="DFS&amp;BFS\39.组数总和.md" xr:uid="{03B67D34-D231-4CB8-BABC-B8FF648C75B0}"/>
-    <hyperlink ref="E2" r:id="rId2" display="DFS&amp;BFS\40.组合总和 II.md" xr:uid="{4C6B034D-35A5-4D7B-B9FF-E7AC9185006C}"/>
-    <hyperlink ref="F2" r:id="rId3" display="DFS&amp;BFS\77.组合.md" xr:uid="{F6636DBB-5BE9-4EF2-9053-291410289019}"/>
-    <hyperlink ref="G2" r:id="rId4" display="DFS&amp;BFS\78.子集.md" xr:uid="{106CB417-1CB0-4151-A0F3-6D49F5BAD34A}"/>
-    <hyperlink ref="H2" r:id="rId5" display="DFS&amp;BFS\90.子集II.md" xr:uid="{28CFE5E2-3F89-4727-A945-2D646782B50F}"/>
-    <hyperlink ref="I2" r:id="rId6" display="DFS&amp;BFS\216.组合总和 III.md" xr:uid="{53EB855F-DF2A-4F3F-870C-3C2B2ACA0EAA}"/>
-    <hyperlink ref="A3" r:id="rId7" display="DFS&amp;BFS\46.全排列.md" xr:uid="{6B968F0E-8E99-4F2C-87D2-5457EF691BD4}"/>
-    <hyperlink ref="D3" r:id="rId8" display="DFS&amp;BFS\47.全排列II.md" xr:uid="{5D19074C-3FB3-46AB-ADCD-97EBEF2D5E19}"/>
-    <hyperlink ref="E3" r:id="rId9" display="DFS&amp;BFS\784.字母大小写全排列.md" xr:uid="{A17AAD45-47D3-4D2A-B038-365B43299922}"/>
-    <hyperlink ref="G3" r:id="rId10" display="DFS&amp;BFS\996.正方形数组的数目.md" xr:uid="{0AFE6187-D3DD-4230-B632-AAA71FB5D97D}"/>
-    <hyperlink ref="D4" r:id="rId11" display="DFS&amp;BFS\301.删除无效的括号.md" xr:uid="{07D4A072-037F-4B40-8E20-2FFCAA0C125C}"/>
-    <hyperlink ref="A5" r:id="rId12" display="DFS&amp;BFS\37.解数独.md" xr:uid="{9E75A6CF-002D-4AF4-BF5A-91951CA0AB31}"/>
-    <hyperlink ref="D5" r:id="rId13" display="DFS&amp;BFS\51.N皇后.md" xr:uid="{5DDC95FD-5125-4E5B-8026-3A96AE82CD35}"/>
-    <hyperlink ref="E5" r:id="rId14" display="DFS&amp;BFS\51.N皇后II.md" xr:uid="{EC20D465-792B-4252-AD1A-D27DFE3A4E99}"/>
-    <hyperlink ref="A6" r:id="rId15" display="DFS&amp;BFS\79.单词搜索.md" xr:uid="{5B89E231-2550-488F-8270-65B6DD90CA3D}"/>
-    <hyperlink ref="D6" r:id="rId16" display="DFS&amp;BFS\212.单词搜索II.md" xr:uid="{C5B571E8-3CC1-40CE-B949-6F8FD36D7188}"/>
-    <hyperlink ref="A7" r:id="rId17" display="DFS&amp;BFS\127.单词接龙.md" xr:uid="{4641A367-1754-46E5-9B43-8BC1A9808F72}"/>
-    <hyperlink ref="E7" r:id="rId18" display="DFS&amp;BFS\752.打开转盘锁.md" xr:uid="{2803E49E-3984-4AD7-9785-3411FCF13E57}"/>
-    <hyperlink ref="F7" r:id="rId19" display="DFS&amp;BFS\818.赛车.md" xr:uid="{3539FBE1-0550-4875-8ACE-A041849C20DD}"/>
-    <hyperlink ref="A8" r:id="rId20" display="DFS&amp;BFS\542.01矩阵.md" xr:uid="{AB5F8A04-426A-406C-942C-C558FE36CD3A}"/>
-    <hyperlink ref="E8" r:id="rId21" display="DFS&amp;BFS\934.最短的桥.md" xr:uid="{A5E90B91-7278-4CE1-A408-41B8CFE84E60}"/>
-    <hyperlink ref="B9" r:id="rId22" display="https://leetcode-cn.com/problems/partition-to-k-equal-sum-subsets/" xr:uid="{AF1C6BB3-B033-498F-B1C5-A487787946FB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId23"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B80C35E-50B4-41E1-8EAF-912F0DBE2BAA}">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>35</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9">
-        <v>34</v>
-      </c>
-      <c r="E2" s="9">
-        <v>704</v>
-      </c>
-      <c r="F2" s="9">
-        <v>981</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9">
-        <v>81</v>
-      </c>
-      <c r="E3" s="9">
-        <v>153</v>
-      </c>
-      <c r="F3" s="9">
-        <v>154</v>
-      </c>
-      <c r="G3" s="9">
-        <v>162</v>
-      </c>
-      <c r="H3" s="9">
-        <v>852</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>69</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>74</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>875</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1011</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>378</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9">
-        <v>668</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>719</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9">
-        <v>786</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:J1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="二分搜索\35.搜索插入位置.md" xr:uid="{53B16234-6A34-4613-A20F-DF947C690785}"/>
-    <hyperlink ref="D2" r:id="rId2" display="二分搜索\34.在排序数组中查找元素的第一个和最后一个位置.md" xr:uid="{DD14D569-C3F6-4200-A3B8-6D9295B068AE}"/>
-    <hyperlink ref="E2" r:id="rId3" display="二分搜索\704.二分查找.md" xr:uid="{2092A7F3-61EA-4E92-BDB8-FDBB69EBD777}"/>
-    <hyperlink ref="F2" r:id="rId4" display="二分搜索\981.基于时间的键值存储.md" xr:uid="{49A2F7BF-4CAC-4ABD-B018-46B9BFB03F47}"/>
-    <hyperlink ref="B3" r:id="rId5" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" xr:uid="{79F1D0B5-BEA5-4A94-91F0-1EA33DC65D6E}"/>
-    <hyperlink ref="A3" r:id="rId6" display="二分搜索\33.旋转搜索排序数组.md" xr:uid="{75F10367-13B3-4D14-A9BD-6C9692D62419}"/>
-    <hyperlink ref="D3" r:id="rId7" display="二分搜索\81.搜索旋转排序数组II.md" xr:uid="{D3D3746E-2116-429E-ADFF-4F6DDE24F6C9}"/>
-    <hyperlink ref="E3" r:id="rId8" display="二分搜索\153.寻找旋转排序数组中的最小值.md" xr:uid="{D23F43DC-676C-4626-9A3F-A386C9A4B812}"/>
-    <hyperlink ref="F3" r:id="rId9" display="二分搜索\154.寻找旋转排序数组中的最小值 II.md" xr:uid="{AC505342-5C3B-4357-B799-08AC3D02E05B}"/>
-    <hyperlink ref="G3" r:id="rId10" display="二分搜索\162.寻找峰值.md" xr:uid="{13F8C925-A1BC-4142-B3AF-436344E45A29}"/>
-    <hyperlink ref="H3" r:id="rId11" display="二分搜索\852.山脉数组的峰顶索引.md" xr:uid="{E67A0210-7A62-471F-A097-F0431247CBE3}"/>
-    <hyperlink ref="A4" r:id="rId12" display="二分搜索\69.x的平方数.md" xr:uid="{F95D172C-2F49-4737-8867-5B0799877455}"/>
-    <hyperlink ref="A5" r:id="rId13" display="二分搜索\74.搜索二维矩阵.md" xr:uid="{AA531C0E-626C-4FE4-AD89-8F53EDC7844E}"/>
-    <hyperlink ref="A6" r:id="rId14" display="二分搜索\875.爱吃香蕉的可可.md" xr:uid="{B4DCC6F7-E603-43A4-8542-B9AC8F424213}"/>
-    <hyperlink ref="D6" r:id="rId15" display="二分搜索\1011.在D天内送达包裹的能力.md" xr:uid="{44B7B8AE-0EAF-4B0B-8EC3-95D93D76C946}"/>
-    <hyperlink ref="A7" r:id="rId16" display="二分搜索\4.寻找两个正序数组的中位数.md" xr:uid="{8BBF4D92-78F3-468A-96D0-BB37C4FE032D}"/>
-    <hyperlink ref="B8" r:id="rId17" display="https://leetcode-cn.com/problems/kth-smallest-element-in-a-sorted-matrix/" xr:uid="{4159F554-0CF8-428D-ABDA-591C325B3DD4}"/>
-    <hyperlink ref="A8" r:id="rId18" display="二分搜索\378.有序矩阵中第 K 小的元素.md" xr:uid="{29EC867E-EA74-4C9F-9523-52843E5E7B54}"/>
-    <hyperlink ref="D8" r:id="rId19" display="二分搜索\668.乘法表中第k小的数.md" xr:uid="{A328882F-59D3-4438-8D38-12FB36E1E94A}"/>
-    <hyperlink ref="B9" r:id="rId20" display="https://leetcode-cn.com/problems/find-k-th-smallest-pair-distance/" xr:uid="{B42D527E-E6B6-4126-B394-71366C1DFCE8}"/>
-    <hyperlink ref="A9" r:id="rId21" display="二分搜索\719.找出第 k 小的距离对.md" xr:uid="{564B6DD2-6301-457D-A1B1-4A45AC134D0F}"/>
-    <hyperlink ref="D9" r:id="rId22" display="二分搜索\786.第k个最小的素数分数.md" xr:uid="{76DA180C-D9BE-4997-A2D9-9A3EB2525AE4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId23"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>133</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9">
-        <v>547</v>
-      </c>
-      <c r="E3" s="9">
-        <v>695</v>
-      </c>
-      <c r="F3" s="9">
-        <v>733</v>
-      </c>
-      <c r="G3" s="9">
-        <v>827</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>841</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>207</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9">
-        <v>210</v>
-      </c>
-      <c r="E5" s="9">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>399</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10">
-        <v>839</v>
-      </c>
-      <c r="E6" s="9">
-        <v>952</v>
-      </c>
-      <c r="F6" s="10">
-        <v>990</v>
-      </c>
-      <c r="G6" s="10">
-        <v>721</v>
-      </c>
-      <c r="H6" s="9">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>785</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9">
-        <v>886</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>997</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>433</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9">
-        <v>815</v>
-      </c>
-      <c r="E9" s="9">
-        <v>863</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1129</v>
-      </c>
-      <c r="G9">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>684</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9">
-        <v>685</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>743</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9">
-        <v>787</v>
-      </c>
-      <c r="E11" s="7">
-        <v>882</v>
-      </c>
-      <c r="F11" s="7">
-        <v>924</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>847</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>864</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>332</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>1192</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>943</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7">
-        <v>980</v>
-      </c>
-      <c r="E15" s="7">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>959</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="图论\133.克隆图.md" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" display="138" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" display="图论\200.岛屿数量.md" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" display="547" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E3" r:id="rId5" display="695" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F3" r:id="rId6" display="733" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G3" r:id="rId7" display="827" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H3" r:id="rId8" display="1162" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A4" r:id="rId9" display="图论\841.房间和钥匙.md" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D4" r:id="rId10" display="1202" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A5" r:id="rId11" display="图论\207.课程表.md" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D5" r:id="rId12" display="210" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E5" r:id="rId13" display="802" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B6" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="A6" r:id="rId15" display="图论\399.除法求值.md" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D6" r:id="rId16" display="839" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E6" r:id="rId17" display="952" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="F6" r:id="rId18" display="990" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="G6" r:id="rId19" display="721" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="H6" r:id="rId20" display="737" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="A7" r:id="rId21" display="图论\785.判断二分图.md" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D7" r:id="rId22" display="886" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E7" r:id="rId23" display="1042" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="A8" r:id="rId24" display="图论/997.找到小镇的法官.md" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="A9" r:id="rId25" display="图论\443.最小基因变化.md" xr:uid="{3CB6CF6F-DF09-4328-AFBF-2737600E3A04}"/>
-    <hyperlink ref="D9" r:id="rId26" display="图论\815.公交线路.md" xr:uid="{1A4490DE-FFE2-4A2D-A631-C965A6CB33A2}"/>
-    <hyperlink ref="E9" r:id="rId27" display="图论\863.二叉树中所有距离为 K 的结点.md" xr:uid="{AAE7B6AF-FA15-4860-9413-CEC4683F4628}"/>
-    <hyperlink ref="F9" r:id="rId28" display="图论\1129.颜色交替的最短路径.md" xr:uid="{1782F1F1-FE48-455A-A8A8-4DDEEEDE2C4C}"/>
-    <hyperlink ref="A10" r:id="rId29" display="图论\684.冗余连接.md" xr:uid="{89F22237-9268-480F-9FCC-CD2A0D05D9D8}"/>
-    <hyperlink ref="D10" r:id="rId30" display="图论\685.冗余连接II.md" xr:uid="{04105594-07EB-40CE-A665-BAA04610D124}"/>
-    <hyperlink ref="E10" r:id="rId31" display="图论\1319.连通网络的操作次数.md" xr:uid="{88C60FCB-A98F-4DFE-91AE-16241DC7BC61}"/>
-    <hyperlink ref="A11" r:id="rId32" display="图论\743.网络延迟时间.md" xr:uid="{0D6F2FDC-1C6D-4082-9930-D4C235746BC6}"/>
-    <hyperlink ref="D11" r:id="rId33" display="图论\787.K 站中转内最便宜的航班.md" xr:uid="{1E732563-57A9-42C5-AB5F-0A6C0D757636}"/>
-    <hyperlink ref="A13" r:id="rId34" display="图论\332.重新安排行程.md" xr:uid="{658DD99C-5412-4429-8AD3-6550C448D721}"/>
-    <hyperlink ref="A14" r:id="rId35" display="图论\1192.查找集群内的「关键连接」.md" xr:uid="{4D11FDBA-57AF-4BFF-BA80-9DA65182CC2E}"/>
-    <hyperlink ref="G11" r:id="rId36" display="图论\1334.阈值距离内邻居最少的城市.md" xr:uid="{EFB116E3-164B-41DE-8159-2D8AFA2A3B58}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>530</v>
-      </c>
-      <c r="M2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>700</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>701</v>
-      </c>
-      <c r="M3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>230</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>501</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>450</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" display="530" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" display="701" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="A2" r:id="rId10" display="98" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="A3" r:id="rId11" display="700" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="A4" r:id="rId12" display="230" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="A5" r:id="rId13" display="99" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="A6" r:id="rId14" display="108" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="A7" r:id="rId15" display="501" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="A8" r:id="rId16" display="450" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>206</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>141</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>147</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>148</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>707</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="A2" r:id="rId9" display="2" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="A3" r:id="rId10" display="24" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="A4" r:id="rId11" display="206" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="A5" r:id="rId12" display="141" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="D5" r:id="rId13" display="142" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="A6" r:id="rId14" display="23" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="D6" r:id="rId15" display="21" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="A7" r:id="rId16" display="147" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="A8" r:id="rId17" display="148" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="A9" r:id="rId18" display="707" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="D2" r:id="rId19" display="445" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>169</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>153</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>912</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>315</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="169" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="153" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="912" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" display="154" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" display="315" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3688,17 +2286,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" t="s">
         <v>4</v>
       </c>
@@ -3853,7 +2451,7 @@
       <c r="A9" s="1">
         <v>297</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>119</v>
       </c>
       <c r="C9" t="s">
@@ -3954,4 +2552,1696 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA49668-22BD-4EC0-AD66-8480DAED1592}">
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="63">
+        <v>44338</v>
+      </c>
+      <c r="E1" s="63">
+        <v>44339</v>
+      </c>
+      <c r="F1" s="63">
+        <v>44340</v>
+      </c>
+      <c r="G1" s="63">
+        <v>44341</v>
+      </c>
+      <c r="H1" s="63">
+        <v>44342</v>
+      </c>
+      <c r="I1" s="63">
+        <v>44343</v>
+      </c>
+      <c r="J1" s="63">
+        <v>44344</v>
+      </c>
+      <c r="K1" s="63">
+        <v>44345</v>
+      </c>
+      <c r="L1" s="63">
+        <v>44346</v>
+      </c>
+      <c r="M1" s="63">
+        <v>44347</v>
+      </c>
+      <c r="N1" s="63">
+        <v>44348</v>
+      </c>
+      <c r="O1" s="63">
+        <v>44349</v>
+      </c>
+      <c r="P1" s="63">
+        <v>44350</v>
+      </c>
+      <c r="Q1" s="63">
+        <v>44351</v>
+      </c>
+      <c r="R1" s="63">
+        <v>44352</v>
+      </c>
+      <c r="S1" s="63">
+        <v>44353</v>
+      </c>
+      <c r="T1" s="63">
+        <v>44354</v>
+      </c>
+      <c r="U1" s="63">
+        <v>44355</v>
+      </c>
+      <c r="V1" s="63">
+        <v>44356</v>
+      </c>
+      <c r="W1" s="63">
+        <v>44357</v>
+      </c>
+      <c r="X1" s="63">
+        <v>44358</v>
+      </c>
+      <c r="Y1" s="63">
+        <v>44359</v>
+      </c>
+      <c r="Z1" s="63">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="61">
+        <f t="shared" ref="B2:B4" si="0">SUM(D2:Z2)</f>
+        <v>75</v>
+      </c>
+      <c r="C2" s="61">
+        <f t="shared" ref="C2:C4" si="1">B2/3600</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11">
+        <v>57</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="61">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C3" s="61">
+        <f t="shared" si="1"/>
+        <v>6.1111111111111114E-3</v>
+      </c>
+      <c r="D3" s="11">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="61">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="61">
+        <f t="shared" si="1"/>
+        <v>3.0555555555555557E-3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="61">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="61">
+        <f>SUM(D5:Z5)</f>
+        <v>20</v>
+      </c>
+      <c r="C5" s="61">
+        <f>B5/3600</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="61">
+        <f t="shared" ref="B6:B8" si="2">SUM(D6:Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="61">
+        <f t="shared" ref="C6:C8" si="3">B6/3600</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209618F9-72BA-4CBD-ADF2-AE4C9AFDEF36}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>42</v>
+      </c>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>125</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>455</v>
+      </c>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>917</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>925</v>
+      </c>
+      <c r="E4" s="7">
+        <v>986</v>
+      </c>
+      <c r="F4" s="7">
+        <v>855</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>167</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>16</v>
+      </c>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>977</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>992</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="双指针\11.盛水最多的容器.md" xr:uid="{877B0953-481B-434D-A0DF-5454612AB115}"/>
+    <hyperlink ref="D2" r:id="rId2" display="双指针\42.接雨水.md" xr:uid="{FB443D8D-E74E-4167-ABAF-1EB733CB97F6}"/>
+    <hyperlink ref="A3" r:id="rId3" display="双指针\125.验证回文串.md" xr:uid="{AD102781-843E-42B6-86DE-4E329893A0AF}"/>
+    <hyperlink ref="D3" r:id="rId4" display="双指针\455.分发饼干.md" xr:uid="{2C01D4D3-2562-499A-A72F-D2261D435822}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21EA0AA-7FC5-4469-8724-8CD0BEA99AB2}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9">
+        <v>77</v>
+      </c>
+      <c r="G2" s="9">
+        <v>78</v>
+      </c>
+      <c r="H2" s="9">
+        <v>90</v>
+      </c>
+      <c r="I2" s="9">
+        <v>216</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>46</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>47</v>
+      </c>
+      <c r="E3" s="9">
+        <v>784</v>
+      </c>
+      <c r="F3" s="7">
+        <v>943</v>
+      </c>
+      <c r="G3" s="9">
+        <v>996</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>301</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>37</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9">
+        <v>52</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>79</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>212</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>127</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="32">
+        <v>126</v>
+      </c>
+      <c r="E7" s="9">
+        <v>752</v>
+      </c>
+      <c r="F7" s="9">
+        <v>818</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>542</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>675</v>
+      </c>
+      <c r="E8" s="9">
+        <v>934</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>698</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>93</v>
+      </c>
+      <c r="E9" s="9">
+        <v>131</v>
+      </c>
+      <c r="F9" s="9">
+        <v>241</v>
+      </c>
+      <c r="G9" s="9">
+        <v>282</v>
+      </c>
+      <c r="H9" s="9">
+        <v>842</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="DFS&amp;BFS\39.组数总和.md" xr:uid="{03B67D34-D231-4CB8-BABC-B8FF648C75B0}"/>
+    <hyperlink ref="E2" r:id="rId2" display="DFS&amp;BFS\40.组合总和 II.md" xr:uid="{4C6B034D-35A5-4D7B-B9FF-E7AC9185006C}"/>
+    <hyperlink ref="F2" r:id="rId3" display="DFS&amp;BFS\77.组合.md" xr:uid="{F6636DBB-5BE9-4EF2-9053-291410289019}"/>
+    <hyperlink ref="G2" r:id="rId4" display="DFS&amp;BFS\78.子集.md" xr:uid="{106CB417-1CB0-4151-A0F3-6D49F5BAD34A}"/>
+    <hyperlink ref="H2" r:id="rId5" display="DFS&amp;BFS\90.子集II.md" xr:uid="{28CFE5E2-3F89-4727-A945-2D646782B50F}"/>
+    <hyperlink ref="I2" r:id="rId6" display="DFS&amp;BFS\216.组合总和 III.md" xr:uid="{53EB855F-DF2A-4F3F-870C-3C2B2ACA0EAA}"/>
+    <hyperlink ref="A3" r:id="rId7" display="DFS&amp;BFS\46.全排列.md" xr:uid="{6B968F0E-8E99-4F2C-87D2-5457EF691BD4}"/>
+    <hyperlink ref="D3" r:id="rId8" display="DFS&amp;BFS\47.全排列II.md" xr:uid="{5D19074C-3FB3-46AB-ADCD-97EBEF2D5E19}"/>
+    <hyperlink ref="E3" r:id="rId9" display="DFS&amp;BFS\784.字母大小写全排列.md" xr:uid="{A17AAD45-47D3-4D2A-B038-365B43299922}"/>
+    <hyperlink ref="G3" r:id="rId10" display="DFS&amp;BFS\996.正方形数组的数目.md" xr:uid="{0AFE6187-D3DD-4230-B632-AAA71FB5D97D}"/>
+    <hyperlink ref="D4" r:id="rId11" display="DFS&amp;BFS\301.删除无效的括号.md" xr:uid="{07D4A072-037F-4B40-8E20-2FFCAA0C125C}"/>
+    <hyperlink ref="A5" r:id="rId12" display="DFS&amp;BFS\37.解数独.md" xr:uid="{9E75A6CF-002D-4AF4-BF5A-91951CA0AB31}"/>
+    <hyperlink ref="D5" r:id="rId13" display="DFS&amp;BFS\51.N皇后.md" xr:uid="{5DDC95FD-5125-4E5B-8026-3A96AE82CD35}"/>
+    <hyperlink ref="E5" r:id="rId14" display="DFS&amp;BFS\51.N皇后II.md" xr:uid="{EC20D465-792B-4252-AD1A-D27DFE3A4E99}"/>
+    <hyperlink ref="A6" r:id="rId15" display="DFS&amp;BFS\79.单词搜索.md" xr:uid="{5B89E231-2550-488F-8270-65B6DD90CA3D}"/>
+    <hyperlink ref="D6" r:id="rId16" display="DFS&amp;BFS\212.单词搜索II.md" xr:uid="{C5B571E8-3CC1-40CE-B949-6F8FD36D7188}"/>
+    <hyperlink ref="A7" r:id="rId17" display="DFS&amp;BFS\127.单词接龙.md" xr:uid="{4641A367-1754-46E5-9B43-8BC1A9808F72}"/>
+    <hyperlink ref="E7" r:id="rId18" display="DFS&amp;BFS\752.打开转盘锁.md" xr:uid="{2803E49E-3984-4AD7-9785-3411FCF13E57}"/>
+    <hyperlink ref="F7" r:id="rId19" display="DFS&amp;BFS\818.赛车.md" xr:uid="{3539FBE1-0550-4875-8ACE-A041849C20DD}"/>
+    <hyperlink ref="A8" r:id="rId20" display="DFS&amp;BFS\542.01矩阵.md" xr:uid="{AB5F8A04-426A-406C-942C-C558FE36CD3A}"/>
+    <hyperlink ref="E8" r:id="rId21" display="DFS&amp;BFS\934.最短的桥.md" xr:uid="{A5E90B91-7278-4CE1-A408-41B8CFE84E60}"/>
+    <hyperlink ref="B9" r:id="rId22" display="https://leetcode-cn.com/problems/partition-to-k-equal-sum-subsets/" xr:uid="{AF1C6BB3-B033-498F-B1C5-A487787946FB}"/>
+    <hyperlink ref="A9" r:id="rId23" display="DFS&amp;BFS\698.划分为k个相等的子集.md" xr:uid="{4ADF44DE-101F-498B-AD3B-3BAE7D99F28F}"/>
+    <hyperlink ref="D9" r:id="rId24" display="DFS&amp;BFS\93.复原IP地址.md" xr:uid="{8240342B-9822-45FB-8882-156DBE327E4C}"/>
+    <hyperlink ref="E9" r:id="rId25" display="DFS&amp;BFS\131.分割回文串.md" xr:uid="{41DC1763-A18B-45A4-8A5B-2DE488904B01}"/>
+    <hyperlink ref="F9" r:id="rId26" display="DFS&amp;BFS\241.为运算表达式设计优先级.md" xr:uid="{F43C38EE-87C9-42DF-8796-C8BDC8A5D5DF}"/>
+    <hyperlink ref="G9" r:id="rId27" display="DFS&amp;BFS\282.给表达式添加运算符.md" xr:uid="{A5F46C9A-9F09-4C1F-97EF-CF84C48737F4}"/>
+    <hyperlink ref="H9" r:id="rId28" display="DFS&amp;BFS\842.划分为k个相等的子集.md" xr:uid="{C067AF68-C22C-448E-BDD5-0FE47801ABB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId29"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B80C35E-50B4-41E1-8EAF-912F0DBE2BAA}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>35</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9">
+        <v>704</v>
+      </c>
+      <c r="F2" s="9">
+        <v>981</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>81</v>
+      </c>
+      <c r="E3" s="9">
+        <v>153</v>
+      </c>
+      <c r="F3" s="9">
+        <v>154</v>
+      </c>
+      <c r="G3" s="9">
+        <v>162</v>
+      </c>
+      <c r="H3" s="9">
+        <v>852</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>69</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>74</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>875</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1011</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>378</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>668</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>719</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>786</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="二分搜索\35.搜索插入位置.md" xr:uid="{53B16234-6A34-4613-A20F-DF947C690785}"/>
+    <hyperlink ref="D2" r:id="rId2" display="二分搜索\34.在排序数组中查找元素的第一个和最后一个位置.md" xr:uid="{DD14D569-C3F6-4200-A3B8-6D9295B068AE}"/>
+    <hyperlink ref="E2" r:id="rId3" display="二分搜索\704.二分查找.md" xr:uid="{2092A7F3-61EA-4E92-BDB8-FDBB69EBD777}"/>
+    <hyperlink ref="F2" r:id="rId4" display="二分搜索\981.基于时间的键值存储.md" xr:uid="{49A2F7BF-4CAC-4ABD-B018-46B9BFB03F47}"/>
+    <hyperlink ref="B3" r:id="rId5" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" xr:uid="{79F1D0B5-BEA5-4A94-91F0-1EA33DC65D6E}"/>
+    <hyperlink ref="A3" r:id="rId6" display="二分搜索\33.旋转搜索排序数组.md" xr:uid="{75F10367-13B3-4D14-A9BD-6C9692D62419}"/>
+    <hyperlink ref="D3" r:id="rId7" display="二分搜索\81.搜索旋转排序数组II.md" xr:uid="{D3D3746E-2116-429E-ADFF-4F6DDE24F6C9}"/>
+    <hyperlink ref="E3" r:id="rId8" display="二分搜索\153.寻找旋转排序数组中的最小值.md" xr:uid="{D23F43DC-676C-4626-9A3F-A386C9A4B812}"/>
+    <hyperlink ref="F3" r:id="rId9" display="二分搜索\154.寻找旋转排序数组中的最小值 II.md" xr:uid="{AC505342-5C3B-4357-B799-08AC3D02E05B}"/>
+    <hyperlink ref="G3" r:id="rId10" display="二分搜索\162.寻找峰值.md" xr:uid="{13F8C925-A1BC-4142-B3AF-436344E45A29}"/>
+    <hyperlink ref="H3" r:id="rId11" display="二分搜索\852.山脉数组的峰顶索引.md" xr:uid="{E67A0210-7A62-471F-A097-F0431247CBE3}"/>
+    <hyperlink ref="A4" r:id="rId12" display="二分搜索\69.x的平方数.md" xr:uid="{F95D172C-2F49-4737-8867-5B0799877455}"/>
+    <hyperlink ref="A5" r:id="rId13" display="二分搜索\74.搜索二维矩阵.md" xr:uid="{AA531C0E-626C-4FE4-AD89-8F53EDC7844E}"/>
+    <hyperlink ref="A6" r:id="rId14" display="二分搜索\875.爱吃香蕉的可可.md" xr:uid="{B4DCC6F7-E603-43A4-8542-B9AC8F424213}"/>
+    <hyperlink ref="D6" r:id="rId15" display="二分搜索\1011.在D天内送达包裹的能力.md" xr:uid="{44B7B8AE-0EAF-4B0B-8EC3-95D93D76C946}"/>
+    <hyperlink ref="A7" r:id="rId16" display="二分搜索\4.寻找两个正序数组的中位数.md" xr:uid="{8BBF4D92-78F3-468A-96D0-BB37C4FE032D}"/>
+    <hyperlink ref="B8" r:id="rId17" display="https://leetcode-cn.com/problems/kth-smallest-element-in-a-sorted-matrix/" xr:uid="{4159F554-0CF8-428D-ABDA-591C325B3DD4}"/>
+    <hyperlink ref="A8" r:id="rId18" display="二分搜索\378.有序矩阵中第 K 小的元素.md" xr:uid="{29EC867E-EA74-4C9F-9523-52843E5E7B54}"/>
+    <hyperlink ref="D8" r:id="rId19" display="二分搜索\668.乘法表中第k小的数.md" xr:uid="{A328882F-59D3-4438-8D38-12FB36E1E94A}"/>
+    <hyperlink ref="B9" r:id="rId20" display="https://leetcode-cn.com/problems/find-k-th-smallest-pair-distance/" xr:uid="{B42D527E-E6B6-4126-B394-71366C1DFCE8}"/>
+    <hyperlink ref="A9" r:id="rId21" display="二分搜索\719.找出第 k 小的距离对.md" xr:uid="{564B6DD2-6301-457D-A1B1-4A45AC134D0F}"/>
+    <hyperlink ref="D9" r:id="rId22" display="二分搜索\786.第k个最小的素数分数.md" xr:uid="{76DA180C-D9BE-4997-A2D9-9A3EB2525AE4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>547</v>
+      </c>
+      <c r="E3" s="9">
+        <v>695</v>
+      </c>
+      <c r="F3" s="9">
+        <v>733</v>
+      </c>
+      <c r="G3" s="9">
+        <v>827</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>841</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>210</v>
+      </c>
+      <c r="E5" s="9">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>399</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>839</v>
+      </c>
+      <c r="E6" s="9">
+        <v>952</v>
+      </c>
+      <c r="F6" s="10">
+        <v>990</v>
+      </c>
+      <c r="G6" s="10">
+        <v>721</v>
+      </c>
+      <c r="H6" s="9">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>785</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>886</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>997</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>433</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>815</v>
+      </c>
+      <c r="E9" s="9">
+        <v>863</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1129</v>
+      </c>
+      <c r="G9">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>684</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>685</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>743</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>787</v>
+      </c>
+      <c r="E11" s="7">
+        <v>882</v>
+      </c>
+      <c r="F11" s="7">
+        <v>924</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>847</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>864</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>332</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>943</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>980</v>
+      </c>
+      <c r="E15" s="7">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>959</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="图论\133.克隆图.md" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="138" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" display="图论\200.岛屿数量.md" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" display="547" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E3" r:id="rId5" display="695" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F3" r:id="rId6" display="733" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G3" r:id="rId7" display="827" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H3" r:id="rId8" display="1162" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A4" r:id="rId9" display="图论\841.房间和钥匙.md" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D4" r:id="rId10" display="1202" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A5" r:id="rId11" display="图论\207.课程表.md" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D5" r:id="rId12" display="210" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E5" r:id="rId13" display="802" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B6" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A6" r:id="rId15" display="图论\399.除法求值.md" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D6" r:id="rId16" display="839" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E6" r:id="rId17" display="952" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F6" r:id="rId18" display="990" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G6" r:id="rId19" display="721" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="H6" r:id="rId20" display="737" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A7" r:id="rId21" display="图论\785.判断二分图.md" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D7" r:id="rId22" display="886" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E7" r:id="rId23" display="1042" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A8" r:id="rId24" display="图论/997.找到小镇的法官.md" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A9" r:id="rId25" display="图论\443.最小基因变化.md" xr:uid="{3CB6CF6F-DF09-4328-AFBF-2737600E3A04}"/>
+    <hyperlink ref="D9" r:id="rId26" display="图论\815.公交线路.md" xr:uid="{1A4490DE-FFE2-4A2D-A631-C965A6CB33A2}"/>
+    <hyperlink ref="E9" r:id="rId27" display="图论\863.二叉树中所有距离为 K 的结点.md" xr:uid="{AAE7B6AF-FA15-4860-9413-CEC4683F4628}"/>
+    <hyperlink ref="F9" r:id="rId28" display="图论\1129.颜色交替的最短路径.md" xr:uid="{1782F1F1-FE48-455A-A8A8-4DDEEEDE2C4C}"/>
+    <hyperlink ref="A10" r:id="rId29" display="图论\684.冗余连接.md" xr:uid="{89F22237-9268-480F-9FCC-CD2A0D05D9D8}"/>
+    <hyperlink ref="D10" r:id="rId30" display="图论\685.冗余连接II.md" xr:uid="{04105594-07EB-40CE-A665-BAA04610D124}"/>
+    <hyperlink ref="E10" r:id="rId31" display="图论\1319.连通网络的操作次数.md" xr:uid="{88C60FCB-A98F-4DFE-91AE-16241DC7BC61}"/>
+    <hyperlink ref="A11" r:id="rId32" display="图论\743.网络延迟时间.md" xr:uid="{0D6F2FDC-1C6D-4082-9930-D4C235746BC6}"/>
+    <hyperlink ref="D11" r:id="rId33" display="图论\787.K 站中转内最便宜的航班.md" xr:uid="{1E732563-57A9-42C5-AB5F-0A6C0D757636}"/>
+    <hyperlink ref="A13" r:id="rId34" display="图论\332.重新安排行程.md" xr:uid="{658DD99C-5412-4429-8AD3-6550C448D721}"/>
+    <hyperlink ref="A14" r:id="rId35" display="图论\1192.查找集群内的「关键连接」.md" xr:uid="{4D11FDBA-57AF-4BFF-BA80-9DA65182CC2E}"/>
+    <hyperlink ref="G11" r:id="rId36" display="图论\1334.阈值距离内邻居最少的城市.md" xr:uid="{EFB116E3-164B-41DE-8159-2D8AFA2A3B58}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>530</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>700</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>701</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>501</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>450</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="530" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" display="701" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A2" r:id="rId10" display="98" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A3" r:id="rId11" display="700" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="A4" r:id="rId12" display="230" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A5" r:id="rId13" display="99" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="A6" r:id="rId14" display="108" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A7" r:id="rId15" display="501" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A8" r:id="rId16" display="450" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>206</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>141</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>147</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>148</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>707</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="A2" r:id="rId9" display="2" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="A3" r:id="rId10" display="24" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="A4" r:id="rId11" display="206" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="A5" r:id="rId12" display="141" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="D5" r:id="rId13" display="142" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="A6" r:id="rId14" display="23" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="D6" r:id="rId15" display="21" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="A7" r:id="rId16" display="147" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="A8" r:id="rId17" display="148" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="A9" r:id="rId18" display="707" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="D2" r:id="rId19" display="445" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>912</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>315</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="169" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="153" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="912" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" display="154" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" display="315" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>